--- a/examples/wangetal2018/out/ResultFiles/PL_1.0_b.xlsx
+++ b/examples/wangetal2018/out/ResultFiles/PL_1.0_b.xlsx
@@ -20,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="178">
   <si>
     <t xml:space="preserve">
 ---------DISCLAIMER---------
 AS NOTED IN THE LICENSE, ALLIANCE FOR SUSTAINABLE ENERGY, LLC: (i) DISCLAIMS ANY WARRANTIES, EXPRESS OR IMPLIED, INCLUDING BUT NOT LIMITED TO ANY IMPLIED WARRANTIES OF MERCHANTABILITY, FITNESS FOR A PARTICULAR PURPOSE, TITLE OR NON-INFRINGEMENT, AND (ii) DOES NOT ASSUME ANY LEGAL LIABILITY OR RESPONSIBILITY FOR THE ACCURACY, COMPLETENESS, OR USEFULNESS OF SOFTWARE OR ITS OUTPUTS. ANY RELIANCE BY THE USER ON THE SOFTWARE IS DONE AT THE USER’S OWN RISK.
-BlendPATH was developed to provide the user with economic analytical capabilities to evaluate potential natural gas transmission pipeline modifications for accommodating hydrogen blending or pure hydrogen streams and to assess the potential associated economic impacts. This tool is intended for use during the early stages of pipeline repurposing concept evaluation, which is defined here as the initial project phase when the developer has already gathered the relevant pipeline material design and operation data but has not yet conducted the detailed pipeline materials testing, as specified in ASME B31.12, or performed the in-line inspections that qualify a given pipeline section for hydrogen or hydrogen blending service. Despite BlendPATH using ASME B31.12 to assess existing natural gas transmission pipelines and establish potential pipeline modifications for a natural gas transmission pipeline network to meet ASME B31.12 design requirements, BlendPATH does not qualify the examined pipeline network or modifications thereof for pure hydrogen or hydrogen blending. Further, actual natural gas transmission pipeline network assessment and qualification will require additional evaluations, independent of BlendPATH application, as specified in ASME B31.12. It is the sole responsibility of the pipeline owner and operator to ensure that their pipeline qualifies for the ASME B31.12 design option that they choose, and any other relevant regulations, and that any defects present in the pipeline are acceptable at the operating pressure chosen.
+BlendPATH was developed to provide the user with economic analytical capabilities to evaluate potential natural gas transmission pipeline modifications for accommodating hydrogen blending or pure hydrogen streams and to assess the potential associated economic impacts. This model is intended for use during the early stages of pipeline repurposing concept evaluation, which is defined here as the initial project phase when the developer has already gathered the relevant pipeline material design and operation data but has not yet conducted the detailed pipeline materials testing, as specified in ASME B31.12, or performed the in-line inspections that qualify a given pipeline section for hydrogen or hydrogen blending service. Despite BlendPATH using ASME B31.12 to assess existing natural gas transmission pipelines and establish potential pipeline modifications for a natural gas transmission pipeline network to meet ASME B31.12 design requirements, BlendPATH does not qualify the examined pipeline network or modifications thereof for pure hydrogen or hydrogen blending. Pipeline owners and operators must conduct additional evaluations as specified in ASME B31.12 and other relevant code and regulations, independent of BlendPATH application, to qualify actual natural gas transmission pipelines for operation with hydrogen. Failure to do so may result in pipeline fatigue and/or rupture. It is the sole responsibility of the pipeline owner and operator to ensure that their pipeline qualifies for the ASME B31.12 design option that they choose, and any other relevant code and regulations, and that any defects present in the pipeline are acceptable at the operating pressure chosen.
 ----------------------------
 </t>
   </si>
@@ -171,12 +171,12 @@
     <t>LCOT: Compressor fuel (electric)</t>
   </si>
   <si>
+    <t>LCOT: Supply commpressor fuel (electric)</t>
+  </si>
+  <si>
     <t>LCOT: Supply commpressor fuel</t>
   </si>
   <si>
-    <t>LCOT: Supply commpressor fuel (electric)</t>
-  </si>
-  <si>
     <t>LCOT: Fixed O&amp;M</t>
   </si>
   <si>
@@ -231,6 +231,9 @@
     <t>Valve modifications</t>
   </si>
   <si>
+    <t>Hydrogen energy ratio</t>
+  </si>
+  <si>
     <t>$/MMBTU</t>
   </si>
   <si>
@@ -258,6 +261,9 @@
     <t>$</t>
   </si>
   <si>
+    <t>%</t>
+  </si>
+  <si>
     <t>Breakdown of original pipe by diameter, schedule and grade</t>
   </si>
   <si>
@@ -297,6 +303,12 @@
     <t>ROW ($)</t>
   </si>
   <si>
+    <t>X42</t>
+  </si>
+  <si>
+    <t>S 30</t>
+  </si>
+  <si>
     <t>S 40S</t>
   </si>
   <si>
@@ -327,9 +339,6 @@
     <t>Electric power (kW)</t>
   </si>
   <si>
-    <t>Supply compressor</t>
-  </si>
-  <si>
     <t>CS1</t>
   </si>
   <si>
@@ -402,16 +411,16 @@
     <t>PI03</t>
   </si>
   <si>
-    <t>PI04_pre_loop_cxn</t>
+    <t>PI04</t>
+  </si>
+  <si>
+    <t>PI05_pre_loop_cxn</t>
   </si>
   <si>
     <t>PS_1_loop</t>
   </si>
   <si>
-    <t>PI04_post_loop_cxn</t>
-  </si>
-  <si>
-    <t>PI05</t>
+    <t>PI05_post_loop_cxn</t>
   </si>
   <si>
     <t>PI06_pre_loop_cxn</t>
@@ -447,12 +456,12 @@
     <t>N04</t>
   </si>
   <si>
+    <t>N05</t>
+  </si>
+  <si>
     <t>loop_cxn_node_ps_1</t>
   </si>
   <si>
-    <t>N05</t>
-  </si>
-  <si>
     <t>N06_C</t>
   </si>
   <si>
@@ -510,7 +519,7 @@
     <t>Isentropic efficiency</t>
   </si>
   <si>
-    <t>Mechanical efficiency</t>
+    <t>Driver efficiency</t>
   </si>
   <si>
     <t>Cost ($)</t>
@@ -520,9 +529,6 @@
   </si>
   <si>
     <t>Total cost ($)</t>
-  </si>
-  <si>
-    <t>Supply compressor from_node</t>
   </si>
   <si>
     <t>Node</t>
@@ -1152,7 +1158,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H55"/>
+  <dimension ref="A1:H57"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1174,10 +1180,10 @@
         <v>37</v>
       </c>
       <c r="B2">
-        <v>0.6933167419285755</v>
+        <v>0.605570096412041</v>
       </c>
       <c r="C2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1185,10 +1191,10 @@
         <v>38</v>
       </c>
       <c r="B3">
-        <v>0.0427767606567025</v>
+        <v>0.07931853090459857</v>
       </c>
       <c r="C3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1196,10 +1202,10 @@
         <v>39</v>
       </c>
       <c r="B4">
-        <v>0.00660186842836789</v>
+        <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1207,10 +1213,10 @@
         <v>40</v>
       </c>
       <c r="B5">
-        <v>0.03365908454790209</v>
+        <v>0.03277431204120957</v>
       </c>
       <c r="C5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1218,10 +1224,10 @@
         <v>41</v>
       </c>
       <c r="B6">
-        <v>0.00660186842836789</v>
+        <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1229,10 +1235,10 @@
         <v>42</v>
       </c>
       <c r="B7">
-        <v>0.006955429068342187</v>
+        <v>0.00677259663262454</v>
       </c>
       <c r="C7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1240,10 +1246,10 @@
         <v>43</v>
       </c>
       <c r="B8">
-        <v>0.01896350925092508</v>
+        <v>0.02091576461552113</v>
       </c>
       <c r="C8" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1254,7 +1260,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1262,10 +1268,10 @@
         <v>45</v>
       </c>
       <c r="B10">
-        <v>0.02026413397544155</v>
+        <v>0.02291195813114481</v>
       </c>
       <c r="C10" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1273,10 +1279,10 @@
         <v>46</v>
       </c>
       <c r="B11">
-        <v>0.5096390054462935</v>
+        <v>0.394755299786187</v>
       </c>
       <c r="C11" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1287,7 +1293,7 @@
         <v>0</v>
       </c>
       <c r="C12" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1298,7 +1304,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1306,10 +1312,10 @@
         <v>49</v>
       </c>
       <c r="B14">
-        <v>0.007021687040013899</v>
+        <v>0</v>
       </c>
       <c r="C14" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1317,10 +1323,10 @@
         <v>50</v>
       </c>
       <c r="B15">
-        <v>0.005232852269292891</v>
+        <v>0.006251728193133326</v>
       </c>
       <c r="C15" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1328,10 +1334,10 @@
         <v>51</v>
       </c>
       <c r="B16">
-        <v>0.0320819460013366</v>
+        <v>0.0389950539802866</v>
       </c>
       <c r="C16" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1339,10 +1345,10 @@
         <v>52</v>
       </c>
       <c r="B17">
-        <v>0.00351859681558972</v>
+        <v>0.002874852127335599</v>
       </c>
       <c r="C17" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1353,7 +1359,7 @@
         <v>4.40756</v>
       </c>
       <c r="C18" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1364,7 +1370,7 @@
         <v>7.39</v>
       </c>
       <c r="C19" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1375,7 +1381,7 @@
         <v>32.79022202852632</v>
       </c>
       <c r="C20" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1386,7 +1392,7 @@
         <v>527617.1846909181</v>
       </c>
       <c r="C21" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1397,7 +1403,7 @@
         <v>21984.04936212159</v>
       </c>
       <c r="C22" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1405,10 +1411,10 @@
         <v>58</v>
       </c>
       <c r="B23">
-        <v>76.29850787480241</v>
+        <v>138.5343130666124</v>
       </c>
       <c r="C23" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1416,10 +1422,10 @@
         <v>58</v>
       </c>
       <c r="B24">
-        <v>47.40968013667385</v>
+        <v>86.08120464451399</v>
       </c>
       <c r="C24" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1427,7 +1433,7 @@
         <v>59</v>
       </c>
       <c r="B25">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1435,10 +1441,10 @@
         <v>60</v>
       </c>
       <c r="B26">
-        <v>2118.445901126889</v>
+        <v>0</v>
       </c>
       <c r="C26" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1446,10 +1452,10 @@
         <v>61</v>
       </c>
       <c r="B27">
-        <v>8200.441492232785</v>
+        <v>6351.883794315617</v>
       </c>
       <c r="C27" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1457,10 +1463,10 @@
         <v>61</v>
       </c>
       <c r="B28">
-        <v>341.685062176366</v>
+        <v>264.6618247631507</v>
       </c>
       <c r="C28" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1471,7 +1477,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1479,10 +1485,10 @@
         <v>63</v>
       </c>
       <c r="B30">
-        <v>64494871.91287054</v>
+        <v>122817617.4799121</v>
       </c>
       <c r="C30" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1490,10 +1496,10 @@
         <v>64</v>
       </c>
       <c r="B31">
-        <v>19907382.05215155</v>
+        <v>0</v>
       </c>
       <c r="C31" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1504,7 +1510,7 @@
         <v>50748077.07023712</v>
       </c>
       <c r="C32" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1515,7 +1521,7 @@
         <v>10486757.29473448</v>
       </c>
       <c r="C33" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1523,217 +1529,202 @@
         <v>67</v>
       </c>
       <c r="B34">
-        <v>28591438</v>
+        <v>32386182</v>
       </c>
       <c r="C34" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
-      <c r="A38" t="s">
         <v>77</v>
       </c>
     </row>
+    <row r="35" spans="1:8">
+      <c r="A35" t="s">
+        <v>68</v>
+      </c>
+      <c r="B35">
+        <v>100</v>
+      </c>
+      <c r="C35" t="s">
+        <v>78</v>
+      </c>
+    </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B39" s="2" t="s">
+      <c r="A39" t="s">
         <v>79</v>
       </c>
-      <c r="C39" s="2" t="s">
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D39" s="2" t="s">
+      <c r="B40" s="2" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="40" spans="1:8">
-      <c r="A40">
+      <c r="C40" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41">
         <v>650</v>
       </c>
-      <c r="B40">
+      <c r="B41">
         <v>400</v>
       </c>
-      <c r="C40" t="s">
-        <v>82</v>
-      </c>
-      <c r="D40" t="s">
+      <c r="C41" t="s">
+        <v>84</v>
+      </c>
+      <c r="D41" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D46" s="2" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="44" spans="1:8">
-      <c r="A44" t="s">
+      <c r="E46" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47">
+        <v>700</v>
+      </c>
+      <c r="B47">
+        <v>34.13744309285616</v>
+      </c>
+      <c r="C47" t="s">
+        <v>92</v>
+      </c>
+      <c r="D47" t="s">
+        <v>93</v>
+      </c>
+      <c r="E47">
+        <v>20418375.38032044</v>
+      </c>
+      <c r="F47">
+        <v>9423756.283332961</v>
+      </c>
+      <c r="G47">
+        <v>4071237.903082449</v>
+      </c>
+      <c r="H47">
+        <v>643466.5539456586</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48">
+        <v>650</v>
+      </c>
+      <c r="B48">
+        <v>95.13638545890598</v>
+      </c>
+      <c r="C48" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="45" spans="1:8">
-      <c r="A45" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="G45" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="H45" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
-      <c r="A46">
+      <c r="D48" t="s">
+        <v>94</v>
+      </c>
+      <c r="E48">
+        <v>46486316.61843681</v>
+      </c>
+      <c r="F48">
+        <v>22026073.11517629</v>
+      </c>
+      <c r="G48">
+        <v>9619462.967029892</v>
+      </c>
+      <c r="H48">
+        <v>1713235.569487118</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49">
         <v>650</v>
       </c>
-      <c r="B46">
-        <v>76.29850787480241</v>
-      </c>
-      <c r="C46" t="s">
-        <v>82</v>
-      </c>
-      <c r="D46" t="s">
-        <v>90</v>
-      </c>
-      <c r="E46">
-        <v>37281599.22697935</v>
-      </c>
-      <c r="F46">
-        <v>17995936.52229255</v>
-      </c>
-      <c r="G46">
-        <v>7845551.451888727</v>
-      </c>
-      <c r="H46">
-        <v>1371784.711709909</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
-      <c r="A50" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
-      <c r="A51" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C51" s="2" t="s">
+      <c r="B49">
+        <v>9.260484514850218</v>
+      </c>
+      <c r="C49" t="s">
+        <v>84</v>
+      </c>
+      <c r="D49" t="s">
         <v>94</v>
       </c>
-      <c r="D51" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="F51" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="G51" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="H51" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
-      <c r="A52" t="s">
-        <v>100</v>
-      </c>
-      <c r="B52">
-        <v>0.4925469969138181</v>
-      </c>
-      <c r="C52">
-        <v>0</v>
-      </c>
-      <c r="D52">
-        <v>660.5153738013684</v>
-      </c>
-      <c r="E52">
-        <v>9953691.026075777</v>
-      </c>
-      <c r="F52">
-        <v>0</v>
-      </c>
-      <c r="G52">
-        <v>4.707656884992814</v>
-      </c>
-      <c r="H52">
-        <v>0</v>
+      <c r="E49">
+        <v>4524933.474410862</v>
+      </c>
+      <c r="F49">
+        <v>2608556.522099377</v>
+      </c>
+      <c r="G49">
+        <v>1118254.186378075</v>
+      </c>
+      <c r="H49">
+        <v>163948.9062121572</v>
       </c>
     </row>
     <row r="53" spans="1:8">
       <c r="A53" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F54" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B53">
-        <v>13.58718030105854</v>
-      </c>
-      <c r="C53">
-        <v>12.5</v>
-      </c>
-      <c r="D53">
-        <v>1457.930527325521</v>
-      </c>
-      <c r="E53">
-        <v>9953691.026075777</v>
-      </c>
-      <c r="F53">
-        <v>16916025.69007904</v>
-      </c>
-      <c r="G53">
-        <v>129.8633090704009</v>
-      </c>
-      <c r="H53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
-      <c r="A54" t="s">
+      <c r="G54" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B54">
-        <v>11.11073263576866</v>
-      </c>
-      <c r="C54">
-        <v>12.5</v>
-      </c>
-      <c r="D54">
-        <v>0</v>
-      </c>
-      <c r="E54">
-        <v>0</v>
-      </c>
-      <c r="F54">
-        <v>16916025.69007904</v>
-      </c>
-      <c r="G54">
-        <v>106.1939618306975</v>
-      </c>
-      <c r="H54">
-        <v>0</v>
+      <c r="H54" s="2" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="55" spans="1:8">
       <c r="A55" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B55">
-        <v>11.05149603173598</v>
+        <v>9.442842970816688</v>
       </c>
       <c r="C55">
         <v>12.5</v>
@@ -1748,9 +1739,61 @@
         <v>16916025.69007904</v>
       </c>
       <c r="G55">
-        <v>105.6277912752676</v>
+        <v>90.25263579720763</v>
       </c>
       <c r="H55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" t="s">
+        <v>105</v>
+      </c>
+      <c r="B56">
+        <v>7.194761081952896</v>
+      </c>
+      <c r="C56">
+        <v>12.5</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>16916025.69007904</v>
+      </c>
+      <c r="G56">
+        <v>68.76595889439618</v>
+      </c>
+      <c r="H56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" t="s">
+        <v>106</v>
+      </c>
+      <c r="B57">
+        <v>11.05311134332922</v>
+      </c>
+      <c r="C57">
+        <v>12.5</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>16916025.69007904</v>
+      </c>
+      <c r="G57">
+        <v>105.6432300715469</v>
+      </c>
+      <c r="H57">
         <v>0</v>
       </c>
     </row>
@@ -1769,58 +1812,58 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>79</v>
-      </c>
       <c r="M1" s="2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="2" spans="1:18">
@@ -1828,55 +1871,55 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="D2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="E2" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="F2">
-        <v>23.06858209444242</v>
+        <v>21.26162620450127</v>
       </c>
       <c r="G2">
         <v>650</v>
       </c>
       <c r="H2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I2">
         <v>9.525</v>
       </c>
       <c r="J2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K2">
         <v>8.758481331682836</v>
       </c>
       <c r="L2">
-        <v>10.25771426728234</v>
+        <v>34.13744309285616</v>
       </c>
       <c r="M2">
-        <v>6.373846171975496</v>
+        <v>21.21201715205112</v>
       </c>
       <c r="N2">
-        <v>8758481.331682835</v>
+        <v>8700000</v>
       </c>
       <c r="O2">
-        <v>8700354.35383575</v>
+        <v>8532536.324568884</v>
       </c>
       <c r="P2">
-        <v>10.18974865712144</v>
+        <v>9.563972602974633</v>
       </c>
       <c r="Q2">
-        <v>0.007679726872006349</v>
+        <v>0.007213150409223247</v>
       </c>
       <c r="R2">
-        <v>46.08226771074511</v>
+        <v>46.50329939151113</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -1884,55 +1927,55 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C3" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="D3" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="E3" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="F3">
-        <v>23.06858209444242</v>
+        <v>24.71633119769534</v>
       </c>
       <c r="G3">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="H3" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="I3">
-        <v>9.525</v>
+        <v>15.875</v>
       </c>
       <c r="J3" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="K3">
-        <v>8.758481331682836</v>
+        <v>9.479348269320552</v>
       </c>
       <c r="L3">
-        <v>10.25771426728234</v>
+        <v>34.13744309285616</v>
       </c>
       <c r="M3">
-        <v>6.373846171975496</v>
+        <v>21.21201715205112</v>
       </c>
       <c r="N3">
-        <v>8758481.331682835</v>
+        <v>8700000</v>
       </c>
       <c r="O3">
-        <v>8700354.35383575</v>
+        <v>8532536.324568884</v>
       </c>
       <c r="P3">
-        <v>10.18974865712144</v>
+        <v>9.90606140029932</v>
       </c>
       <c r="Q3">
-        <v>0.007679726872006349</v>
+        <v>0.007471153861433659</v>
       </c>
       <c r="R3">
-        <v>46.08226771074511</v>
+        <v>46.50329939151113</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -1940,55 +1983,55 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C4" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="D4" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="E4" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="F4">
-        <v>46.1374031978641</v>
+        <v>45.97823316584937</v>
       </c>
       <c r="G4">
         <v>650</v>
       </c>
       <c r="H4" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I4">
         <v>9.525</v>
       </c>
       <c r="J4" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K4">
         <v>8.758481331682836</v>
       </c>
       <c r="L4">
-        <v>29.74228573271766</v>
+        <v>5.862556907143841</v>
       </c>
       <c r="M4">
-        <v>18.48099382802451</v>
+        <v>3.642822847948875</v>
       </c>
       <c r="N4">
-        <v>8700354.35383575</v>
+        <v>8532536.324568884</v>
       </c>
       <c r="O4">
-        <v>8030841.543389915</v>
+        <v>8402933.927147388</v>
       </c>
       <c r="P4">
-        <v>21.96455803408465</v>
+        <v>20.9803383915154</v>
       </c>
       <c r="Q4">
-        <v>0.01660094166230665</v>
+        <v>0.01583199761948707</v>
       </c>
       <c r="R4">
-        <v>47.84039016326727</v>
+        <v>46.83712241607548</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -1996,31 +2039,31 @@
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C5" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="D5" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="E5" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="F5">
-        <v>46.13734501853946</v>
+        <v>45.97820004393989</v>
       </c>
       <c r="G5">
         <v>650</v>
       </c>
       <c r="H5" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I5">
         <v>9.525</v>
       </c>
       <c r="J5" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K5">
         <v>8.758481331682836</v>
@@ -2032,19 +2075,19 @@
         <v>18.64113</v>
       </c>
       <c r="N5">
-        <v>8030841.543389915</v>
+        <v>8402933.927147388</v>
       </c>
       <c r="O5">
-        <v>7297792.574932429</v>
+        <v>7708001.733217917</v>
       </c>
       <c r="P5">
-        <v>24.02902889380072</v>
+        <v>22.74718645192499</v>
       </c>
       <c r="Q5">
-        <v>0.01821961293567952</v>
+        <v>0.01721647987674528</v>
       </c>
       <c r="R5">
-        <v>50.03826314418474</v>
+        <v>48.76947735847825</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -2052,31 +2095,31 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C6" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="D6" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="E6" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="F6">
-        <v>24.5594368457932</v>
+        <v>25.44022350456844</v>
       </c>
       <c r="G6">
         <v>650</v>
       </c>
       <c r="H6" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I6">
         <v>9.525</v>
       </c>
       <c r="J6" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K6">
         <v>8.758481331682836</v>
@@ -2091,16 +2134,16 @@
         <v>8758481.331682835</v>
       </c>
       <c r="O6">
-        <v>8555597.007887291</v>
+        <v>8541209.507094258</v>
       </c>
       <c r="P6">
-        <v>11.01942650378589</v>
+        <v>11.43258424880926</v>
       </c>
       <c r="Q6">
-        <v>0.00831005130302937</v>
+        <v>0.008622144400381622</v>
       </c>
       <c r="R6">
-        <v>46.44470372606213</v>
+        <v>46.48123333513014</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -2108,55 +2151,55 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="E7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="F7">
-        <v>16.44677647023557</v>
+        <v>17.32756295785865</v>
       </c>
       <c r="G7">
         <v>650</v>
       </c>
       <c r="H7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I7">
         <v>9.525</v>
       </c>
       <c r="J7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K7">
         <v>8.758481331682836</v>
       </c>
       <c r="L7">
-        <v>25.26540429734857</v>
+        <v>48.5</v>
       </c>
       <c r="M7">
-        <v>15.69918953364778</v>
+        <v>30.1364935</v>
       </c>
       <c r="N7">
-        <v>8555597.007887291</v>
+        <v>8541209.507094258</v>
       </c>
       <c r="O7">
-        <v>8478890.643016938</v>
+        <v>8377523.512397858</v>
       </c>
       <c r="P7">
-        <v>7.441767301414681</v>
+        <v>7.928953837835339</v>
       </c>
       <c r="Q7">
-        <v>0.005613846151052519</v>
+        <v>0.005983918331691219</v>
       </c>
       <c r="R7">
-        <v>46.64054094807801</v>
+        <v>46.9034872202644</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -2164,55 +2207,55 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C8" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="D8" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="E8" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="F8">
-        <v>21.30919708202168</v>
+        <v>17.32756297191427</v>
       </c>
       <c r="G8">
         <v>650</v>
       </c>
       <c r="H8" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I8">
         <v>9.525</v>
       </c>
       <c r="J8" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K8">
         <v>8.758481331682836</v>
       </c>
       <c r="L8">
-        <v>56.76540429734857</v>
+        <v>15.13638545890598</v>
       </c>
       <c r="M8">
-        <v>35.27237603364777</v>
+        <v>9.405310968985868</v>
       </c>
       <c r="N8">
-        <v>8758481.331682835</v>
+        <v>8377523.512397858</v>
       </c>
       <c r="O8">
-        <v>8478890.643016938</v>
+        <v>8325823.124174025</v>
       </c>
       <c r="P8">
-        <v>9.641895573691063</v>
+        <v>7.974991753036992</v>
       </c>
       <c r="Q8">
-        <v>0.007273556960713637</v>
+        <v>0.006019977511148514</v>
       </c>
       <c r="R8">
-        <v>46.64054094807801</v>
+        <v>47.03945800408803</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -2220,55 +2263,55 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C9" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D9" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="E9" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="F9">
-        <v>37.75597627777182</v>
+        <v>20.35109585970221</v>
       </c>
       <c r="G9">
         <v>650</v>
       </c>
       <c r="H9" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I9">
         <v>9.525</v>
       </c>
       <c r="J9" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K9">
         <v>8.758481331682836</v>
       </c>
       <c r="L9">
-        <v>23.23459570265143</v>
+        <v>95.13638545890598</v>
       </c>
       <c r="M9">
-        <v>14.43730396635222</v>
+        <v>59.11499096898586</v>
       </c>
       <c r="N9">
-        <v>8478890.643016938</v>
+        <v>8758481.331682835</v>
       </c>
       <c r="O9">
-        <v>8121925.635312006</v>
+        <v>8325823.124174025</v>
       </c>
       <c r="P9">
-        <v>17.78509200209082</v>
+        <v>9.366570117372312</v>
       </c>
       <c r="Q9">
-        <v>0.0134368376358908</v>
+        <v>0.007070420034190532</v>
       </c>
       <c r="R9">
-        <v>47.58839562202819</v>
+        <v>47.03945800408803</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -2276,55 +2319,55 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C10" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="D10" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="E10" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="F10">
-        <v>37.75597562748843</v>
+        <v>37.67866164101322</v>
       </c>
       <c r="G10">
         <v>650</v>
       </c>
       <c r="H10" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I10">
         <v>9.525</v>
       </c>
       <c r="J10" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K10">
         <v>8.758481331682836</v>
       </c>
       <c r="L10">
-        <v>50</v>
+        <v>34.86361454109402</v>
       </c>
       <c r="M10">
-        <v>31.06855</v>
+        <v>21.66323903101414</v>
       </c>
       <c r="N10">
-        <v>8121925.635312006</v>
+        <v>8325823.124174025</v>
       </c>
       <c r="O10">
-        <v>7298768.972183082</v>
+        <v>7776879.622434246</v>
       </c>
       <c r="P10">
-        <v>19.66091767468865</v>
+        <v>18.48567371656673</v>
       </c>
       <c r="Q10">
-        <v>0.01490749997207461</v>
+        <v>0.01398690780989953</v>
       </c>
       <c r="R10">
-        <v>50.03511620335967</v>
+        <v>48.56638370666906</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -2332,55 +2375,55 @@
         <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C11" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="D11" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="E11" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="F11">
-        <v>18.76826046837648</v>
+        <v>18.76827642145897</v>
       </c>
       <c r="G11">
         <v>650</v>
       </c>
       <c r="H11" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I11">
         <v>9.525</v>
       </c>
       <c r="J11" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K11">
         <v>8.758481331682836</v>
       </c>
       <c r="L11">
-        <v>9.275389310171501</v>
+        <v>9.260484514850218</v>
       </c>
       <c r="M11">
-        <v>5.763457931050576</v>
+        <v>5.754196523476995</v>
       </c>
       <c r="N11">
         <v>8758481.331682835</v>
       </c>
       <c r="O11">
-        <v>8723118.153222879</v>
+        <v>8723175.028840285</v>
       </c>
       <c r="P11">
-        <v>8.269907283627928</v>
+        <v>8.269863985347255</v>
       </c>
       <c r="Q11">
-        <v>0.006232206322959393</v>
+        <v>0.006232172219699099</v>
       </c>
       <c r="R11">
-        <v>46.02610255918568</v>
+        <v>46.02596250780338</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -2388,55 +2431,55 @@
         <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C12" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="D12" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="E12" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="F12">
-        <v>18.76826046837648</v>
+        <v>18.76827642145897</v>
       </c>
       <c r="G12">
         <v>650</v>
       </c>
       <c r="H12" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I12">
         <v>9.525</v>
       </c>
       <c r="J12" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K12">
         <v>8.758481331682836</v>
       </c>
       <c r="L12">
-        <v>9.275389310171501</v>
+        <v>9.260484514850218</v>
       </c>
       <c r="M12">
-        <v>5.763457931050576</v>
+        <v>5.754196523476995</v>
       </c>
       <c r="N12">
         <v>8758481.331682835</v>
       </c>
       <c r="O12">
-        <v>8723118.153222879</v>
+        <v>8723175.028840285</v>
       </c>
       <c r="P12">
-        <v>8.269907283627928</v>
+        <v>8.269863985347255</v>
       </c>
       <c r="Q12">
-        <v>0.006232206322959393</v>
+        <v>0.006232172219699099</v>
       </c>
       <c r="R12">
-        <v>46.02610255918568</v>
+        <v>46.02596250780338</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -2444,55 +2487,55 @@
         <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C13" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="D13" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="E13" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="F13">
-        <v>37.53652093121487</v>
+        <v>37.53655284658395</v>
       </c>
       <c r="G13">
         <v>650</v>
       </c>
       <c r="H13" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I13">
         <v>9.525</v>
       </c>
       <c r="J13" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K13">
         <v>8.758481331682836</v>
       </c>
       <c r="L13">
-        <v>40.72461068982849</v>
+        <v>40.73951548514978</v>
       </c>
       <c r="M13">
-        <v>25.30509206894942</v>
+        <v>25.314353476523</v>
       </c>
       <c r="N13">
-        <v>8723118.153222879</v>
+        <v>8723175.028840285</v>
       </c>
       <c r="O13">
-        <v>8112538.877969598</v>
+        <v>8112367.383149006</v>
       </c>
       <c r="P13">
-        <v>17.70087056722317</v>
+        <v>17.70123603075709</v>
       </c>
       <c r="Q13">
-        <v>0.01337374359175377</v>
+        <v>0.01337402951362049</v>
       </c>
       <c r="R13">
-        <v>47.61416756573077</v>
+        <v>47.61463883459531</v>
       </c>
     </row>
     <row r="14" spans="1:18">
@@ -2500,31 +2543,31 @@
         <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C14" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="D14" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="E14" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="F14">
-        <v>37.53652093620049</v>
+        <v>37.53655285403583</v>
       </c>
       <c r="G14">
         <v>650</v>
       </c>
       <c r="H14" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I14">
         <v>9.525</v>
       </c>
       <c r="J14" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K14">
         <v>8.758481331682836</v>
@@ -2536,19 +2579,19 @@
         <v>31.06855</v>
       </c>
       <c r="N14">
-        <v>8112538.877969598</v>
+        <v>8112367.383149006</v>
       </c>
       <c r="O14">
-        <v>7298134.018111377</v>
+        <v>7297943.212836062</v>
       </c>
       <c r="P14">
-        <v>19.54823647407556</v>
+        <v>19.5487336549076</v>
       </c>
       <c r="Q14">
-        <v>0.01482210373335826</v>
+        <v>0.01482249334617319</v>
       </c>
       <c r="R14">
-        <v>50.03716259640493</v>
+        <v>50.03777759495631</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -2556,16 +2599,16 @@
         <v>3</v>
       </c>
       <c r="B15" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C15" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="D15" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="E15" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="F15">
         <v>37.31823697281247</v>
@@ -2574,13 +2617,13 @@
         <v>650</v>
       </c>
       <c r="H15" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I15">
         <v>9.525</v>
       </c>
       <c r="J15" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K15">
         <v>8.758481331682836</v>
@@ -2612,16 +2655,16 @@
         <v>3</v>
       </c>
       <c r="B16" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C16" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="D16" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="E16" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="F16">
         <v>37.31823697222328</v>
@@ -2630,13 +2673,13 @@
         <v>650</v>
       </c>
       <c r="H16" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I16">
         <v>9.525</v>
       </c>
       <c r="J16" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K16">
         <v>8.758481331682836</v>
@@ -2670,7 +2713,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R5"/>
+  <dimension ref="A1:R4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2678,96 +2721,96 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" s="2" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="2" spans="1:18">
       <c r="B2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="C2" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="D2" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="E2" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>43.49597</v>
       </c>
       <c r="H2">
-        <v>1.006721992147452</v>
+        <v>1.13628429712695</v>
       </c>
       <c r="I2">
-        <v>4.707656884992814</v>
+        <v>90.25263579720763</v>
       </c>
       <c r="J2">
-        <v>0.4925469969138181</v>
+        <v>9.442842970816688</v>
       </c>
       <c r="K2">
-        <v>660.5153738013684</v>
+        <v>12663.0412807246</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.4925469969138181</v>
+        <v>12.5</v>
       </c>
       <c r="N2">
         <v>0.78</v>
@@ -2776,51 +2819,51 @@
         <v>0.357</v>
       </c>
       <c r="P2">
-        <v>9953691.026075777</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>16916025.69007904</v>
       </c>
       <c r="R2">
-        <v>9953691.026075777</v>
+        <v>16916025.69007904</v>
       </c>
     </row>
     <row r="3" spans="1:18">
       <c r="B3" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="C3" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="D3" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="E3" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="F3">
-        <v>70</v>
+        <v>200</v>
       </c>
       <c r="G3">
-        <v>43.49597</v>
+        <v>124.2742</v>
       </c>
       <c r="H3">
-        <v>1.200154874470919</v>
+        <v>1.126220509626628</v>
       </c>
       <c r="I3">
-        <v>129.8633090704009</v>
+        <v>68.76595889439618</v>
       </c>
       <c r="J3">
-        <v>13.58718030105854</v>
+        <v>7.194761081952896</v>
       </c>
       <c r="K3">
-        <v>18220.68052732552</v>
+        <v>9648.318506120471</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>13.58718030105854</v>
+        <v>12.5</v>
       </c>
       <c r="N3">
         <v>0.78</v>
@@ -2829,45 +2872,45 @@
         <v>0.357</v>
       </c>
       <c r="P3">
-        <v>9953691.026075777</v>
+        <v>0</v>
       </c>
       <c r="Q3">
         <v>16916025.69007904</v>
       </c>
       <c r="R3">
-        <v>26869716.71615482</v>
+        <v>16916025.69007904</v>
       </c>
     </row>
     <row r="4" spans="1:18">
       <c r="B4" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C4" t="s">
+        <v>152</v>
+      </c>
+      <c r="D4" t="s">
         <v>148</v>
       </c>
-      <c r="D4" t="s">
-        <v>142</v>
-      </c>
       <c r="E4" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="F4">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="G4">
-        <v>124.2742</v>
+        <v>186.4113</v>
       </c>
       <c r="H4">
-        <v>1.199994323023921</v>
+        <v>1.200130101900203</v>
       </c>
       <c r="I4">
-        <v>106.1939618306975</v>
+        <v>105.6432300715469</v>
       </c>
       <c r="J4">
-        <v>11.11073263576866</v>
+        <v>11.05311134332922</v>
       </c>
       <c r="K4">
-        <v>14899.71467921848</v>
+        <v>14822.44337363136</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -2888,59 +2931,6 @@
         <v>16916025.69007904</v>
       </c>
       <c r="R4">
-        <v>16916025.69007904</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
-      <c r="B5" t="s">
-        <v>103</v>
-      </c>
-      <c r="C5" t="s">
-        <v>149</v>
-      </c>
-      <c r="D5" t="s">
-        <v>145</v>
-      </c>
-      <c r="E5" t="s">
-        <v>151</v>
-      </c>
-      <c r="F5">
-        <v>300</v>
-      </c>
-      <c r="G5">
-        <v>186.4113</v>
-      </c>
-      <c r="H5">
-        <v>1.200098725228585</v>
-      </c>
-      <c r="I5">
-        <v>105.6277912752676</v>
-      </c>
-      <c r="J5">
-        <v>11.05149603173598</v>
-      </c>
-      <c r="K5">
-        <v>14820.27720847858</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5">
-        <v>12.5</v>
-      </c>
-      <c r="N5">
-        <v>0.78</v>
-      </c>
-      <c r="O5">
-        <v>0.357</v>
-      </c>
-      <c r="P5">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>16916025.69007904</v>
-      </c>
-      <c r="R5">
         <v>16916025.69007904</v>
       </c>
     </row>
@@ -2951,7 +2941,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2959,15 +2949,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>165</v>
+        <v>138</v>
       </c>
       <c r="B2">
         <v>8700000</v>
@@ -2975,129 +2965,121 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B3">
-        <v>8758481.331682835</v>
+        <v>8532536.324568884</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B4">
-        <v>8700354.35383575</v>
+        <v>8402933.927147388</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="B5">
-        <v>8030841.543389915</v>
+        <v>7708001.733217917</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="B6">
-        <v>7297792.574932429</v>
+        <v>8758481.331682835</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B7">
-        <v>8758481.331682835</v>
+        <v>8541209.507094258</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B8">
-        <v>8555597.007887291</v>
+        <v>8377523.512397858</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B9">
-        <v>8478890.643016938</v>
+        <v>8325823.124174025</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="B10">
-        <v>8121925.635312006</v>
+        <v>7776879.622434246</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B11">
-        <v>7298768.972183082</v>
+        <v>8758481.331682835</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B12">
-        <v>8758481.331682835</v>
+        <v>8723175.028840285</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B13">
-        <v>8723118.153222879</v>
+        <v>8112367.383149006</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="B14">
-        <v>8112538.877969598</v>
+        <v>7297943.212836062</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B15">
-        <v>7298134.018111377</v>
+        <v>8758481.331682835</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B16">
-        <v>8758481.331682835</v>
+        <v>8014671.579439835</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="B17">
-        <v>8014671.579439835</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>150</v>
-      </c>
-      <c r="B18">
         <v>7199669.899335487</v>
       </c>
     </row>
@@ -3116,36 +3098,36 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B2">
         <v>8.11266027279845</v>
       </c>
       <c r="C2">
-        <v>8.112660375557631</v>
+        <v>8.112660546709783</v>
       </c>
       <c r="D2">
         <v>141.8178946624533</v>
@@ -3154,15 +3136,15 @@
         <v>1150.5204</v>
       </c>
       <c r="F2">
-        <v>1150.520414573091</v>
+        <v>1150.520438845529</v>
       </c>
       <c r="G2">
-        <v>1.266652087782627E-06</v>
+        <v>3.376344177075946E-06</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B3">
         <v>21.09291642722411</v>
@@ -3185,7 +3167,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B4">
         <v>16.2253205455969</v>

--- a/examples/wangetal2018/out/ResultFiles/PL_1.0_b.xlsx
+++ b/examples/wangetal2018/out/ResultFiles/PL_1.0_b.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="222">
   <si>
     <t xml:space="preserve">
 ---------DISCLAIMER---------
@@ -396,6 +396,12 @@
     <t>Erosional velocity (m/s)</t>
   </si>
   <si>
+    <t>PI01_0</t>
+  </si>
+  <si>
+    <t>PI01_1</t>
+  </si>
+  <si>
     <t>PI01_pre_loop_cxn</t>
   </si>
   <si>
@@ -405,76 +411,202 @@
     <t>PI01_post_loop_cxn</t>
   </si>
   <si>
+    <t>PI02_0</t>
+  </si>
+  <si>
     <t>PI02</t>
   </si>
   <si>
+    <t>PI03_0</t>
+  </si>
+  <si>
     <t>PI03</t>
   </si>
   <si>
+    <t>PI04_0</t>
+  </si>
+  <si>
+    <t>PI04_1</t>
+  </si>
+  <si>
     <t>PI04</t>
   </si>
   <si>
-    <t>PI05_pre_loop_cxn</t>
+    <t>PI05_0_pre_loop_cxn</t>
   </si>
   <si>
     <t>PS_1_loop</t>
   </si>
   <si>
-    <t>PI05_post_loop_cxn</t>
-  </si>
-  <si>
-    <t>PI06_pre_loop_cxn</t>
+    <t>PI05_0_post_loop_cxn</t>
+  </si>
+  <si>
+    <t>PI05_1</t>
+  </si>
+  <si>
+    <t>PI05</t>
+  </si>
+  <si>
+    <t>PI06_0_pre_loop_cxn</t>
   </si>
   <si>
     <t>PS_2_loop</t>
   </si>
   <si>
-    <t>PI06_post_loop_cxn</t>
+    <t>PI06_0_post_loop_cxn</t>
+  </si>
+  <si>
+    <t>PI06_1</t>
+  </si>
+  <si>
+    <t>PI06</t>
+  </si>
+  <si>
+    <t>PI07_0</t>
+  </si>
+  <si>
+    <t>PI07_1</t>
   </si>
   <si>
     <t>PI07</t>
   </si>
   <si>
+    <t>PI08_0</t>
+  </si>
+  <si>
+    <t>PI08_1</t>
+  </si>
+  <si>
     <t>PI08</t>
   </si>
   <si>
+    <t>PI09_0</t>
+  </si>
+  <si>
+    <t>PI09_1</t>
+  </si>
+  <si>
     <t>PI09</t>
   </si>
   <si>
+    <t>PS_0_loop_0</t>
+  </si>
+  <si>
+    <t>PS_1_loop_0</t>
+  </si>
+  <si>
+    <t>PS_1_loop_1</t>
+  </si>
+  <si>
+    <t>PS_1_loop_2</t>
+  </si>
+  <si>
+    <t>PS_1_loop_3</t>
+  </si>
+  <si>
+    <t>PS_1_loop_4</t>
+  </si>
+  <si>
     <t>N01</t>
   </si>
   <si>
+    <t>N01_0</t>
+  </si>
+  <si>
+    <t>N01_1</t>
+  </si>
+  <si>
+    <t>N01_0_</t>
+  </si>
+  <si>
     <t>loop_cxn_node_ps_0</t>
   </si>
   <si>
     <t>N02</t>
   </si>
   <si>
+    <t>N02_0</t>
+  </si>
+  <si>
     <t>N03_C</t>
   </si>
   <si>
+    <t>N03_C_0</t>
+  </si>
+  <si>
     <t>N04</t>
   </si>
   <si>
+    <t>N04_0</t>
+  </si>
+  <si>
+    <t>N04_1</t>
+  </si>
+  <si>
     <t>N05</t>
   </si>
   <si>
+    <t>N03_C_4</t>
+  </si>
+  <si>
     <t>loop_cxn_node_ps_1</t>
   </si>
   <si>
+    <t>N05_0</t>
+  </si>
+  <si>
+    <t>N05_1</t>
+  </si>
+  <si>
     <t>N06_C</t>
   </si>
   <si>
     <t>loop_cxn_node_ps_2</t>
   </si>
   <si>
+    <t>N06_C_0</t>
+  </si>
+  <si>
+    <t>N06_C_1</t>
+  </si>
+  <si>
     <t>N07</t>
   </si>
   <si>
+    <t>N07_0</t>
+  </si>
+  <si>
+    <t>N07_1</t>
+  </si>
+  <si>
     <t>N08_C</t>
   </si>
   <si>
+    <t>N08_C_0</t>
+  </si>
+  <si>
+    <t>N08_C_1</t>
+  </si>
+  <si>
     <t>N09</t>
+  </si>
+  <si>
+    <t>N09_0</t>
+  </si>
+  <si>
+    <t>N09_1</t>
+  </si>
+  <si>
+    <t>N03_C_0_</t>
+  </si>
+  <si>
+    <t>N03_C_1</t>
+  </si>
+  <si>
+    <t>N03_C_2</t>
+  </si>
+  <si>
+    <t>N03_C_3</t>
   </si>
   <si>
     <t>N03</t>
@@ -1180,7 +1312,7 @@
         <v>37</v>
       </c>
       <c r="B2">
-        <v>0.605570096412041</v>
+        <v>0.6139392944081716</v>
       </c>
       <c r="C2" t="s">
         <v>69</v>
@@ -1191,7 +1323,7 @@
         <v>38</v>
       </c>
       <c r="B3">
-        <v>0.07931853090459857</v>
+        <v>0.08115239770696907</v>
       </c>
       <c r="C3" t="s">
         <v>69</v>
@@ -1213,7 +1345,7 @@
         <v>40</v>
       </c>
       <c r="B5">
-        <v>0.03277431204120957</v>
+        <v>0.03277661170077205</v>
       </c>
       <c r="C5" t="s">
         <v>69</v>
@@ -1235,7 +1367,7 @@
         <v>42</v>
       </c>
       <c r="B7">
-        <v>0.00677259663262454</v>
+        <v>0.006773071842190784</v>
       </c>
       <c r="C7" t="s">
         <v>69</v>
@@ -1246,7 +1378,7 @@
         <v>43</v>
       </c>
       <c r="B8">
-        <v>0.02091576461552113</v>
+        <v>0.02091723220202742</v>
       </c>
       <c r="C8" t="s">
         <v>69</v>
@@ -1268,7 +1400,7 @@
         <v>45</v>
       </c>
       <c r="B10">
-        <v>0.02291195813114481</v>
+        <v>0.02304939287615709</v>
       </c>
       <c r="C10" t="s">
         <v>69</v>
@@ -1279,7 +1411,7 @@
         <v>46</v>
       </c>
       <c r="B11">
-        <v>0.394755299786187</v>
+        <v>0.4005103777133411</v>
       </c>
       <c r="C11" t="s">
         <v>69</v>
@@ -1323,7 +1455,7 @@
         <v>50</v>
       </c>
       <c r="B15">
-        <v>0.006251728193133326</v>
+        <v>0.006335738695043783</v>
       </c>
       <c r="C15" t="s">
         <v>69</v>
@@ -1334,7 +1466,7 @@
         <v>51</v>
       </c>
       <c r="B16">
-        <v>0.0389950539802866</v>
+        <v>0.03950941145016833</v>
       </c>
       <c r="C16" t="s">
         <v>69</v>
@@ -1345,7 +1477,7 @@
         <v>52</v>
       </c>
       <c r="B17">
-        <v>0.002874852127335599</v>
+        <v>0.002915060221502108</v>
       </c>
       <c r="C17" t="s">
         <v>69</v>
@@ -1411,7 +1543,7 @@
         <v>58</v>
       </c>
       <c r="B23">
-        <v>138.5343130666124</v>
+        <v>141.7646491894801</v>
       </c>
       <c r="C23" t="s">
         <v>73</v>
@@ -1422,7 +1554,7 @@
         <v>58</v>
       </c>
       <c r="B24">
-        <v>86.08120464451399</v>
+        <v>88.08844183151641</v>
       </c>
       <c r="C24" t="s">
         <v>74</v>
@@ -1452,7 +1584,7 @@
         <v>61</v>
       </c>
       <c r="B27">
-        <v>6351.883794315617</v>
+        <v>6444.486949334213</v>
       </c>
       <c r="C27" t="s">
         <v>71</v>
@@ -1463,7 +1595,7 @@
         <v>61</v>
       </c>
       <c r="B28">
-        <v>264.6618247631507</v>
+        <v>268.5202895555922</v>
       </c>
       <c r="C28" t="s">
         <v>72</v>
@@ -1485,7 +1617,7 @@
         <v>63</v>
       </c>
       <c r="B30">
-        <v>122817617.4799121</v>
+        <v>125648379.1206152</v>
       </c>
       <c r="C30" t="s">
         <v>77</v>
@@ -1570,7 +1702,7 @@
         <v>650</v>
       </c>
       <c r="B41">
-        <v>400</v>
+        <v>400.0000000000002</v>
       </c>
       <c r="C41" t="s">
         <v>84</v>
@@ -1615,7 +1747,7 @@
         <v>700</v>
       </c>
       <c r="B47">
-        <v>34.13744309285616</v>
+        <v>34.82059372892645</v>
       </c>
       <c r="C47" t="s">
         <v>92</v>
@@ -1624,16 +1756,16 @@
         <v>93</v>
       </c>
       <c r="E47">
-        <v>20418375.38032044</v>
+        <v>20826983.19815397</v>
       </c>
       <c r="F47">
-        <v>9423756.283332961</v>
+        <v>9596320.813802095</v>
       </c>
       <c r="G47">
-        <v>4071237.903082449</v>
+        <v>4146444.559961289</v>
       </c>
       <c r="H47">
-        <v>643466.5539456586</v>
+        <v>656438.5308731612</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1641,7 +1773,7 @@
         <v>650</v>
       </c>
       <c r="B48">
-        <v>95.13638545890598</v>
+        <v>96.17510249898882</v>
       </c>
       <c r="C48" t="s">
         <v>84</v>
@@ -1650,16 +1782,16 @@
         <v>94</v>
       </c>
       <c r="E48">
-        <v>46486316.61843681</v>
+        <v>46993863.01059099</v>
       </c>
       <c r="F48">
-        <v>22026073.11517629</v>
+        <v>22246210.70252553</v>
       </c>
       <c r="G48">
-        <v>9619462.967029892</v>
+        <v>9716445.757630648</v>
       </c>
       <c r="H48">
-        <v>1713235.569487118</v>
+        <v>1732078.485193053</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1667,7 +1799,7 @@
         <v>650</v>
       </c>
       <c r="B49">
-        <v>9.260484514850218</v>
+        <v>10.76895296156478</v>
       </c>
       <c r="C49" t="s">
         <v>84</v>
@@ -1676,16 +1808,16 @@
         <v>94</v>
       </c>
       <c r="E49">
-        <v>4524933.474410862</v>
+        <v>5262013.63028019</v>
       </c>
       <c r="F49">
-        <v>2608556.522099377</v>
+        <v>2995175.180618188</v>
       </c>
       <c r="G49">
-        <v>1118254.186378075</v>
+        <v>1285539.77071547</v>
       </c>
       <c r="H49">
-        <v>163948.9062121572</v>
+        <v>190865.4802706752</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1724,7 +1856,7 @@
         <v>104</v>
       </c>
       <c r="B55">
-        <v>9.442842970816688</v>
+        <v>9.570067280390024</v>
       </c>
       <c r="C55">
         <v>12.5</v>
@@ -1739,7 +1871,7 @@
         <v>16916025.69007904</v>
       </c>
       <c r="G55">
-        <v>90.25263579720763</v>
+        <v>91.468618029673</v>
       </c>
       <c r="H55">
         <v>0</v>
@@ -1750,7 +1882,7 @@
         <v>105</v>
       </c>
       <c r="B56">
-        <v>7.194761081952896</v>
+        <v>7.293272027480121</v>
       </c>
       <c r="C56">
         <v>12.5</v>
@@ -1765,7 +1897,7 @@
         <v>16916025.69007904</v>
       </c>
       <c r="G56">
-        <v>68.76595889439618</v>
+        <v>69.70750504910666</v>
       </c>
       <c r="H56">
         <v>0</v>
@@ -1776,7 +1908,7 @@
         <v>106</v>
       </c>
       <c r="B57">
-        <v>11.05311134332922</v>
+        <v>11.23107484806673</v>
       </c>
       <c r="C57">
         <v>12.5</v>
@@ -1791,7 +1923,7 @@
         <v>16916025.69007904</v>
       </c>
       <c r="G57">
-        <v>105.6432300715469</v>
+        <v>107.3441664768126</v>
       </c>
       <c r="H57">
         <v>0</v>
@@ -1804,7 +1936,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R16"/>
+  <dimension ref="A1:R38"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1874,16 +2006,16 @@
         <v>123</v>
       </c>
       <c r="C2" t="s">
-        <v>138</v>
+        <v>160</v>
       </c>
       <c r="D2" t="s">
-        <v>139</v>
+        <v>161</v>
       </c>
       <c r="E2" t="s">
-        <v>154</v>
+        <v>198</v>
       </c>
       <c r="F2">
-        <v>21.26162620450127</v>
+        <v>21.26507348629178</v>
       </c>
       <c r="G2">
         <v>650</v>
@@ -1901,25 +2033,25 @@
         <v>8.758481331682836</v>
       </c>
       <c r="L2">
-        <v>34.13744309285616</v>
+        <v>13.33333333333333</v>
       </c>
       <c r="M2">
-        <v>21.21201715205112</v>
+        <v>8.284946666666665</v>
       </c>
       <c r="N2">
         <v>8700000</v>
       </c>
       <c r="O2">
-        <v>8532536.324568884</v>
+        <v>8634210.685615284</v>
       </c>
       <c r="P2">
-        <v>9.563972602974633</v>
+        <v>9.503037005320966</v>
       </c>
       <c r="Q2">
-        <v>0.007213150409223247</v>
+        <v>0.007124720407839355</v>
       </c>
       <c r="R2">
-        <v>46.50329939151113</v>
+        <v>46.50264629401923</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -1930,52 +2062,52 @@
         <v>124</v>
       </c>
       <c r="C3" t="s">
-        <v>138</v>
+        <v>161</v>
       </c>
       <c r="D3" t="s">
-        <v>139</v>
+        <v>162</v>
       </c>
       <c r="E3" t="s">
-        <v>155</v>
+        <v>198</v>
       </c>
       <c r="F3">
-        <v>24.71633119769534</v>
+        <v>21.26507497251158</v>
       </c>
       <c r="G3">
-        <v>700</v>
+        <v>650</v>
       </c>
       <c r="H3" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="I3">
-        <v>15.875</v>
+        <v>9.525</v>
       </c>
       <c r="J3" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="K3">
-        <v>9.479348269320552</v>
+        <v>8.758481331682836</v>
       </c>
       <c r="L3">
-        <v>34.13744309285616</v>
+        <v>13.33333333333333</v>
       </c>
       <c r="M3">
-        <v>21.21201715205112</v>
+        <v>8.284946666666665</v>
       </c>
       <c r="N3">
-        <v>8700000</v>
+        <v>8634210.685615284</v>
       </c>
       <c r="O3">
-        <v>8532536.324568884</v>
+        <v>8567942.940002073</v>
       </c>
       <c r="P3">
-        <v>9.90606140029932</v>
+        <v>9.510287813878801</v>
       </c>
       <c r="Q3">
-        <v>0.007471153861433659</v>
+        <v>0.007131766079863947</v>
       </c>
       <c r="R3">
-        <v>46.50329939151113</v>
+        <v>46.67265636985787</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -1986,16 +2118,16 @@
         <v>125</v>
       </c>
       <c r="C4" t="s">
-        <v>139</v>
+        <v>162</v>
       </c>
       <c r="D4" t="s">
-        <v>140</v>
+        <v>164</v>
       </c>
       <c r="E4" t="s">
-        <v>154</v>
+        <v>198</v>
       </c>
       <c r="F4">
-        <v>45.97823316584937</v>
+        <v>21.26507620941879</v>
       </c>
       <c r="G4">
         <v>650</v>
@@ -2013,25 +2145,25 @@
         <v>8.758481331682836</v>
       </c>
       <c r="L4">
-        <v>5.862556907143841</v>
+        <v>8.153927062259779</v>
       </c>
       <c r="M4">
-        <v>3.642822847948875</v>
+        <v>5.066613812603421</v>
       </c>
       <c r="N4">
-        <v>8532536.324568884</v>
+        <v>8567942.940002073</v>
       </c>
       <c r="O4">
-        <v>8402933.927147388</v>
+        <v>8527176.986218391</v>
       </c>
       <c r="P4">
-        <v>20.9803383915154</v>
+        <v>9.514730846316649</v>
       </c>
       <c r="Q4">
-        <v>0.01583199761948707</v>
+        <v>0.007136099908075459</v>
       </c>
       <c r="R4">
-        <v>46.83712241607548</v>
+        <v>46.778172509449</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -2042,72 +2174,72 @@
         <v>126</v>
       </c>
       <c r="C5" t="s">
-        <v>140</v>
+        <v>163</v>
       </c>
       <c r="D5" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="E5" t="s">
-        <v>154</v>
+        <v>199</v>
       </c>
       <c r="F5">
-        <v>45.97820004393989</v>
+        <v>24.72033667877603</v>
       </c>
       <c r="G5">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="H5" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="I5">
-        <v>9.525</v>
+        <v>15.875</v>
       </c>
       <c r="J5" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="K5">
-        <v>8.758481331682836</v>
+        <v>9.479348269320552</v>
       </c>
       <c r="L5">
-        <v>30</v>
+        <v>17.41029686446322</v>
       </c>
       <c r="M5">
-        <v>18.64113</v>
+        <v>10.81825357296838</v>
       </c>
       <c r="N5">
-        <v>8402933.927147388</v>
+        <v>8613999.111311514</v>
       </c>
       <c r="O5">
-        <v>7708001.733217917</v>
+        <v>8527176.986218391</v>
       </c>
       <c r="P5">
-        <v>22.74718645192499</v>
+        <v>9.858332680010118</v>
       </c>
       <c r="Q5">
-        <v>0.01721647987674528</v>
+        <v>0.007391602919498745</v>
       </c>
       <c r="R5">
-        <v>48.76947735847825</v>
+        <v>46.778172509449</v>
       </c>
     </row>
     <row r="6" spans="1:18">
       <c r="A6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B6" t="s">
         <v>127</v>
       </c>
       <c r="C6" t="s">
-        <v>141</v>
+        <v>164</v>
       </c>
       <c r="D6" t="s">
-        <v>142</v>
+        <v>165</v>
       </c>
       <c r="E6" t="s">
-        <v>154</v>
+        <v>198</v>
       </c>
       <c r="F6">
-        <v>25.44022350456844</v>
+        <v>45.98492403506768</v>
       </c>
       <c r="G6">
         <v>650</v>
@@ -2125,45 +2257,45 @@
         <v>8.758481331682836</v>
       </c>
       <c r="L6">
-        <v>31.5</v>
+        <v>5.179406271073555</v>
       </c>
       <c r="M6">
-        <v>19.5731865</v>
+        <v>3.218332854063246</v>
       </c>
       <c r="N6">
-        <v>8758481.331682835</v>
+        <v>8527176.986218391</v>
       </c>
       <c r="O6">
-        <v>8541209.507094258</v>
+        <v>8411359.720656494</v>
       </c>
       <c r="P6">
-        <v>11.43258424880926</v>
+        <v>20.57750569979011</v>
       </c>
       <c r="Q6">
-        <v>0.008622144400381622</v>
+        <v>0.01543950297010387</v>
       </c>
       <c r="R6">
-        <v>46.48123333513014</v>
+        <v>47.08189695338708</v>
       </c>
     </row>
     <row r="7" spans="1:18">
       <c r="A7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B7" t="s">
         <v>128</v>
       </c>
       <c r="C7" t="s">
-        <v>142</v>
+        <v>165</v>
       </c>
       <c r="D7" t="s">
-        <v>143</v>
+        <v>166</v>
       </c>
       <c r="E7" t="s">
-        <v>154</v>
+        <v>198</v>
       </c>
       <c r="F7">
-        <v>17.32756295785865</v>
+        <v>45.98494051547526</v>
       </c>
       <c r="G7">
         <v>650</v>
@@ -2181,45 +2313,45 @@
         <v>8.758481331682836</v>
       </c>
       <c r="L7">
-        <v>48.5</v>
+        <v>15</v>
       </c>
       <c r="M7">
-        <v>30.1364935</v>
+        <v>9.320565</v>
       </c>
       <c r="N7">
-        <v>8541209.507094258</v>
+        <v>8411359.720656494</v>
       </c>
       <c r="O7">
-        <v>8377523.512397858</v>
+        <v>8067085.049522392</v>
       </c>
       <c r="P7">
-        <v>7.928953837835339</v>
+        <v>20.59523558400067</v>
       </c>
       <c r="Q7">
-        <v>0.005983918331691219</v>
+        <v>0.01547145771050503</v>
       </c>
       <c r="R7">
-        <v>46.9034872202644</v>
+        <v>48.02386806994939</v>
       </c>
     </row>
     <row r="8" spans="1:18">
       <c r="A8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B8" t="s">
         <v>129</v>
       </c>
       <c r="C8" t="s">
-        <v>143</v>
+        <v>166</v>
       </c>
       <c r="D8" t="s">
-        <v>144</v>
+        <v>194</v>
       </c>
       <c r="E8" t="s">
-        <v>154</v>
+        <v>198</v>
       </c>
       <c r="F8">
-        <v>17.32756297191427</v>
+        <v>45.98497144413381</v>
       </c>
       <c r="G8">
         <v>650</v>
@@ -2237,25 +2369,25 @@
         <v>8.758481331682836</v>
       </c>
       <c r="L8">
-        <v>15.13638545890598</v>
+        <v>15</v>
       </c>
       <c r="M8">
-        <v>9.405310968985868</v>
+        <v>9.320565</v>
       </c>
       <c r="N8">
-        <v>8377523.512397858</v>
+        <v>8067085.049522392</v>
       </c>
       <c r="O8">
-        <v>8325823.124174025</v>
+        <v>7708262.93406593</v>
       </c>
       <c r="P8">
-        <v>7.974991753036992</v>
+        <v>20.61312027869564</v>
       </c>
       <c r="Q8">
-        <v>0.006019977511148514</v>
+        <v>0.01550445176915702</v>
       </c>
       <c r="R8">
-        <v>47.03945800408803</v>
+        <v>49.07323597065238</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -2266,16 +2398,16 @@
         <v>130</v>
       </c>
       <c r="C9" t="s">
-        <v>141</v>
+        <v>167</v>
       </c>
       <c r="D9" t="s">
-        <v>144</v>
+        <v>168</v>
       </c>
       <c r="E9" t="s">
-        <v>155</v>
+        <v>198</v>
       </c>
       <c r="F9">
-        <v>20.35109585970221</v>
+        <v>25.4582978368625</v>
       </c>
       <c r="G9">
         <v>650</v>
@@ -2293,25 +2425,25 @@
         <v>8.758481331682836</v>
       </c>
       <c r="L9">
-        <v>95.13638545890598</v>
+        <v>15.75</v>
       </c>
       <c r="M9">
-        <v>59.11499096898586</v>
+        <v>9.786593249999999</v>
       </c>
       <c r="N9">
         <v>8758481.331682835</v>
       </c>
       <c r="O9">
-        <v>8325823.124174025</v>
+        <v>8649137.068075731</v>
       </c>
       <c r="P9">
-        <v>9.366570117372312</v>
+        <v>11.30777993397665</v>
       </c>
       <c r="Q9">
-        <v>0.007070420034190532</v>
+        <v>0.008477364593703667</v>
       </c>
       <c r="R9">
-        <v>47.03945800408803</v>
+        <v>46.46460832167008</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -2322,16 +2454,16 @@
         <v>131</v>
       </c>
       <c r="C10" t="s">
-        <v>144</v>
+        <v>168</v>
       </c>
       <c r="D10" t="s">
-        <v>151</v>
+        <v>169</v>
       </c>
       <c r="E10" t="s">
-        <v>154</v>
+        <v>198</v>
       </c>
       <c r="F10">
-        <v>37.67866164101322</v>
+        <v>25.45829787984765</v>
       </c>
       <c r="G10">
         <v>650</v>
@@ -2349,45 +2481,45 @@
         <v>8.758481331682836</v>
       </c>
       <c r="L10">
-        <v>34.86361454109402</v>
+        <v>15.75</v>
       </c>
       <c r="M10">
-        <v>21.66323903101414</v>
+        <v>9.786593249999999</v>
       </c>
       <c r="N10">
-        <v>8325823.124174025</v>
+        <v>8649137.068075731</v>
       </c>
       <c r="O10">
-        <v>7776879.622434246</v>
+        <v>8538468.950980525</v>
       </c>
       <c r="P10">
-        <v>18.48567371656673</v>
+        <v>11.317842689514</v>
       </c>
       <c r="Q10">
-        <v>0.01398690780989953</v>
+        <v>0.008488112409900191</v>
       </c>
       <c r="R10">
-        <v>48.56638370666906</v>
+        <v>46.74887342828138</v>
       </c>
     </row>
     <row r="11" spans="1:18">
       <c r="A11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B11" t="s">
         <v>132</v>
       </c>
       <c r="C11" t="s">
-        <v>145</v>
+        <v>169</v>
       </c>
       <c r="D11" t="s">
-        <v>146</v>
+        <v>170</v>
       </c>
       <c r="E11" t="s">
-        <v>154</v>
+        <v>198</v>
       </c>
       <c r="F11">
-        <v>18.76827642145897</v>
+        <v>17.34563889486629</v>
       </c>
       <c r="G11">
         <v>650</v>
@@ -2405,45 +2537,45 @@
         <v>8.758481331682836</v>
       </c>
       <c r="L11">
-        <v>9.260484514850218</v>
+        <v>16.16666666666667</v>
       </c>
       <c r="M11">
-        <v>5.754196523476995</v>
+        <v>10.04549783333334</v>
       </c>
       <c r="N11">
-        <v>8758481.331682835</v>
+        <v>8538468.950980525</v>
       </c>
       <c r="O11">
-        <v>8723175.028840285</v>
+        <v>8483494.782698594</v>
       </c>
       <c r="P11">
-        <v>8.269863985347255</v>
+        <v>7.718304823958263</v>
       </c>
       <c r="Q11">
-        <v>0.006232172219699099</v>
+        <v>0.005789649535393264</v>
       </c>
       <c r="R11">
-        <v>46.02596250780338</v>
+        <v>46.89203498485088</v>
       </c>
     </row>
     <row r="12" spans="1:18">
       <c r="A12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B12" t="s">
         <v>133</v>
       </c>
       <c r="C12" t="s">
-        <v>145</v>
+        <v>170</v>
       </c>
       <c r="D12" t="s">
-        <v>146</v>
+        <v>171</v>
       </c>
       <c r="E12" t="s">
-        <v>155</v>
+        <v>198</v>
       </c>
       <c r="F12">
-        <v>18.76827642145897</v>
+        <v>17.34563889953099</v>
       </c>
       <c r="G12">
         <v>650</v>
@@ -2461,45 +2593,45 @@
         <v>8.758481331682836</v>
       </c>
       <c r="L12">
-        <v>9.260484514850218</v>
+        <v>16.16666666666667</v>
       </c>
       <c r="M12">
-        <v>5.754196523476995</v>
+        <v>10.04549783333334</v>
       </c>
       <c r="N12">
-        <v>8758481.331682835</v>
+        <v>8483494.782698594</v>
       </c>
       <c r="O12">
-        <v>8723175.028840285</v>
+        <v>8428181.310250917</v>
       </c>
       <c r="P12">
-        <v>8.269863985347255</v>
+        <v>7.725381533113086</v>
       </c>
       <c r="Q12">
-        <v>0.006232172219699099</v>
+        <v>0.005796083892960414</v>
       </c>
       <c r="R12">
-        <v>46.02596250780338</v>
+        <v>47.03741580396984</v>
       </c>
     </row>
     <row r="13" spans="1:18">
       <c r="A13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B13" t="s">
         <v>134</v>
       </c>
       <c r="C13" t="s">
-        <v>146</v>
+        <v>171</v>
       </c>
       <c r="D13" t="s">
-        <v>147</v>
+        <v>172</v>
       </c>
       <c r="E13" t="s">
-        <v>154</v>
+        <v>198</v>
       </c>
       <c r="F13">
-        <v>37.53655284658395</v>
+        <v>17.34563890425431</v>
       </c>
       <c r="G13">
         <v>650</v>
@@ -2517,45 +2649,45 @@
         <v>8.758481331682836</v>
       </c>
       <c r="L13">
-        <v>40.73951548514978</v>
+        <v>16.16666666666667</v>
       </c>
       <c r="M13">
-        <v>25.314353476523</v>
+        <v>10.04549783333334</v>
       </c>
       <c r="N13">
-        <v>8723175.028840285</v>
+        <v>8428181.310250917</v>
       </c>
       <c r="O13">
-        <v>8112367.383149006</v>
+        <v>8372522.172361416</v>
       </c>
       <c r="P13">
-        <v>17.70123603075709</v>
+        <v>7.732478137775452</v>
       </c>
       <c r="Q13">
-        <v>0.01337402951362049</v>
+        <v>0.005802556089109972</v>
       </c>
       <c r="R13">
-        <v>47.61463883459531</v>
+        <v>47.1850785885139</v>
       </c>
     </row>
     <row r="14" spans="1:18">
       <c r="A14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B14" t="s">
         <v>135</v>
       </c>
       <c r="C14" t="s">
-        <v>147</v>
+        <v>172</v>
       </c>
       <c r="D14" t="s">
-        <v>152</v>
+        <v>174</v>
       </c>
       <c r="E14" t="s">
-        <v>154</v>
+        <v>198</v>
       </c>
       <c r="F14">
-        <v>37.53655285403583</v>
+        <v>17.34563890903785</v>
       </c>
       <c r="G14">
         <v>650</v>
@@ -2573,45 +2705,45 @@
         <v>8.758481331682836</v>
       </c>
       <c r="L14">
-        <v>50</v>
+        <v>16.17510249898881</v>
       </c>
       <c r="M14">
-        <v>31.06855</v>
+        <v>10.05073961489918</v>
       </c>
       <c r="N14">
-        <v>8112367.383149006</v>
+        <v>8372522.172361416</v>
       </c>
       <c r="O14">
-        <v>7297943.212836062</v>
+        <v>8316481.486383285</v>
       </c>
       <c r="P14">
-        <v>19.5487336549076</v>
+        <v>7.739598450808135</v>
       </c>
       <c r="Q14">
-        <v>0.01482249334617319</v>
+        <v>0.005809070335190746</v>
       </c>
       <c r="R14">
-        <v>50.03777759495631</v>
+        <v>47.33516753322824</v>
       </c>
     </row>
     <row r="15" spans="1:18">
       <c r="A15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B15" t="s">
         <v>136</v>
       </c>
       <c r="C15" t="s">
-        <v>148</v>
+        <v>173</v>
       </c>
       <c r="D15" t="s">
-        <v>149</v>
+        <v>174</v>
       </c>
       <c r="E15" t="s">
-        <v>154</v>
+        <v>199</v>
       </c>
       <c r="F15">
-        <v>37.31823697281247</v>
+        <v>20.33848169166926</v>
       </c>
       <c r="G15">
         <v>650</v>
@@ -2629,45 +2761,45 @@
         <v>8.758481331682836</v>
       </c>
       <c r="L15">
-        <v>50</v>
+        <v>16.02918374983147</v>
       </c>
       <c r="M15">
-        <v>31.06855</v>
+        <v>9.960069935816531</v>
       </c>
       <c r="N15">
-        <v>8758481.331682835</v>
+        <v>8391677.388716727</v>
       </c>
       <c r="O15">
-        <v>8014671.579439835</v>
+        <v>8316481.486383285</v>
       </c>
       <c r="P15">
-        <v>17.79913082274241</v>
+        <v>9.078684266094546</v>
       </c>
       <c r="Q15">
-        <v>0.01345362086727198</v>
+        <v>0.006812301691570908</v>
       </c>
       <c r="R15">
-        <v>47.8855775738207</v>
+        <v>47.33516753322824</v>
       </c>
     </row>
     <row r="16" spans="1:18">
       <c r="A16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B16" t="s">
         <v>137</v>
       </c>
       <c r="C16" t="s">
-        <v>149</v>
+        <v>174</v>
       </c>
       <c r="D16" t="s">
-        <v>153</v>
+        <v>175</v>
       </c>
       <c r="E16" t="s">
-        <v>154</v>
+        <v>198</v>
       </c>
       <c r="F16">
-        <v>37.31823697222328</v>
+        <v>37.68411265250729</v>
       </c>
       <c r="G16">
         <v>650</v>
@@ -2685,25 +2817,1257 @@
         <v>8.758481331682836</v>
       </c>
       <c r="L16">
-        <v>50</v>
+        <v>0.4915641676778613</v>
       </c>
       <c r="M16">
-        <v>31.06855</v>
+        <v>0.3054437184341603</v>
       </c>
       <c r="N16">
-        <v>8014671.579439835</v>
+        <v>8316481.486383285</v>
       </c>
       <c r="O16">
-        <v>7199669.899335487</v>
+        <v>8308880.801883166</v>
       </c>
       <c r="P16">
-        <v>19.68441511397698</v>
+        <v>16.81479300202428</v>
       </c>
       <c r="Q16">
-        <v>0.01493194552375518</v>
+        <v>0.01262093961683016</v>
       </c>
       <c r="R16">
-        <v>50.35778160696795</v>
+        <v>47.35563428711578</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17" t="s">
+        <v>138</v>
+      </c>
+      <c r="C17" t="s">
+        <v>175</v>
+      </c>
+      <c r="D17" t="s">
+        <v>176</v>
+      </c>
+      <c r="E17" t="s">
+        <v>198</v>
+      </c>
+      <c r="F17">
+        <v>37.68411286004587</v>
+      </c>
+      <c r="G17">
+        <v>650</v>
+      </c>
+      <c r="H17" t="s">
+        <v>85</v>
+      </c>
+      <c r="I17">
+        <v>9.525</v>
+      </c>
+      <c r="J17" t="s">
+        <v>84</v>
+      </c>
+      <c r="K17">
+        <v>8.758481331682836</v>
+      </c>
+      <c r="L17">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="M17">
+        <v>10.35618333333334</v>
+      </c>
+      <c r="N17">
+        <v>8308880.801883166</v>
+      </c>
+      <c r="O17">
+        <v>8047153.078632046</v>
+      </c>
+      <c r="P17">
+        <v>16.83077885370421</v>
+      </c>
+      <c r="Q17">
+        <v>0.01264442544803647</v>
+      </c>
+      <c r="R17">
+        <v>48.08027792544853</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18" t="s">
+        <v>139</v>
+      </c>
+      <c r="C18" t="s">
+        <v>176</v>
+      </c>
+      <c r="D18" t="s">
+        <v>195</v>
+      </c>
+      <c r="E18" t="s">
+        <v>198</v>
+      </c>
+      <c r="F18">
+        <v>37.68411338969795</v>
+      </c>
+      <c r="G18">
+        <v>650</v>
+      </c>
+      <c r="H18" t="s">
+        <v>85</v>
+      </c>
+      <c r="I18">
+        <v>9.525</v>
+      </c>
+      <c r="J18" t="s">
+        <v>84</v>
+      </c>
+      <c r="K18">
+        <v>8.758481331682836</v>
+      </c>
+      <c r="L18">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="M18">
+        <v>10.35618333333334</v>
+      </c>
+      <c r="N18">
+        <v>8047153.078632046</v>
+      </c>
+      <c r="O18">
+        <v>7777085.150570298</v>
+      </c>
+      <c r="P18">
+        <v>16.84681184188604</v>
+      </c>
+      <c r="Q18">
+        <v>0.01266856455850806</v>
+      </c>
+      <c r="R18">
+        <v>48.86599447197199</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
+      <c r="A19">
+        <v>2</v>
+      </c>
+      <c r="B19" t="s">
+        <v>140</v>
+      </c>
+      <c r="C19" t="s">
+        <v>177</v>
+      </c>
+      <c r="D19" t="s">
+        <v>178</v>
+      </c>
+      <c r="E19" t="s">
+        <v>198</v>
+      </c>
+      <c r="F19">
+        <v>18.77003393283785</v>
+      </c>
+      <c r="G19">
+        <v>650</v>
+      </c>
+      <c r="H19" t="s">
+        <v>85</v>
+      </c>
+      <c r="I19">
+        <v>9.525</v>
+      </c>
+      <c r="J19" t="s">
+        <v>84</v>
+      </c>
+      <c r="K19">
+        <v>8.758481331682836</v>
+      </c>
+      <c r="L19">
+        <v>10.76895296156478</v>
+      </c>
+      <c r="M19">
+        <v>6.691515070680469</v>
+      </c>
+      <c r="N19">
+        <v>8758481.331682835</v>
+      </c>
+      <c r="O19">
+        <v>8716952.478284363</v>
+      </c>
+      <c r="P19">
+        <v>8.334721986848731</v>
+      </c>
+      <c r="Q19">
+        <v>0.006246985387092395</v>
+      </c>
+      <c r="R19">
+        <v>46.29354700958321</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
+      <c r="A20">
+        <v>2</v>
+      </c>
+      <c r="B20" t="s">
+        <v>141</v>
+      </c>
+      <c r="C20" t="s">
+        <v>177</v>
+      </c>
+      <c r="D20" t="s">
+        <v>178</v>
+      </c>
+      <c r="E20" t="s">
+        <v>199</v>
+      </c>
+      <c r="F20">
+        <v>18.77003393283785</v>
+      </c>
+      <c r="G20">
+        <v>650</v>
+      </c>
+      <c r="H20" t="s">
+        <v>85</v>
+      </c>
+      <c r="I20">
+        <v>9.525</v>
+      </c>
+      <c r="J20" t="s">
+        <v>84</v>
+      </c>
+      <c r="K20">
+        <v>8.758481331682836</v>
+      </c>
+      <c r="L20">
+        <v>10.76895296156478</v>
+      </c>
+      <c r="M20">
+        <v>6.691515070680469</v>
+      </c>
+      <c r="N20">
+        <v>8758481.331682835</v>
+      </c>
+      <c r="O20">
+        <v>8716952.478284363</v>
+      </c>
+      <c r="P20">
+        <v>8.334721986848731</v>
+      </c>
+      <c r="Q20">
+        <v>0.006246985387092395</v>
+      </c>
+      <c r="R20">
+        <v>46.29354700958321</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
+      <c r="A21">
+        <v>2</v>
+      </c>
+      <c r="B21" t="s">
+        <v>142</v>
+      </c>
+      <c r="C21" t="s">
+        <v>178</v>
+      </c>
+      <c r="D21" t="s">
+        <v>179</v>
+      </c>
+      <c r="E21" t="s">
+        <v>198</v>
+      </c>
+      <c r="F21">
+        <v>37.54006775409122</v>
+      </c>
+      <c r="G21">
+        <v>650</v>
+      </c>
+      <c r="H21" t="s">
+        <v>85</v>
+      </c>
+      <c r="I21">
+        <v>9.525</v>
+      </c>
+      <c r="J21" t="s">
+        <v>84</v>
+      </c>
+      <c r="K21">
+        <v>8.758481331682836</v>
+      </c>
+      <c r="L21">
+        <v>5.897713705101884</v>
+      </c>
+      <c r="M21">
+        <v>3.664668262652863</v>
+      </c>
+      <c r="N21">
+        <v>8716952.478284363</v>
+      </c>
+      <c r="O21">
+        <v>8630003.332177546</v>
+      </c>
+      <c r="P21">
+        <v>16.67190828733156</v>
+      </c>
+      <c r="Q21">
+        <v>0.0124996226246863</v>
+      </c>
+      <c r="R21">
+        <v>46.51338508334923</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
+      <c r="A22">
+        <v>2</v>
+      </c>
+      <c r="B22" t="s">
+        <v>143</v>
+      </c>
+      <c r="C22" t="s">
+        <v>179</v>
+      </c>
+      <c r="D22" t="s">
+        <v>180</v>
+      </c>
+      <c r="E22" t="s">
+        <v>198</v>
+      </c>
+      <c r="F22">
+        <v>37.54006776039246</v>
+      </c>
+      <c r="G22">
+        <v>650</v>
+      </c>
+      <c r="H22" t="s">
+        <v>85</v>
+      </c>
+      <c r="I22">
+        <v>9.525</v>
+      </c>
+      <c r="J22" t="s">
+        <v>84</v>
+      </c>
+      <c r="K22">
+        <v>8.758481331682836</v>
+      </c>
+      <c r="L22">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="M22">
+        <v>10.35618333333334</v>
+      </c>
+      <c r="N22">
+        <v>8630003.332177546</v>
+      </c>
+      <c r="O22">
+        <v>8379675.931896062</v>
+      </c>
+      <c r="P22">
+        <v>16.68760486390014</v>
+      </c>
+      <c r="Q22">
+        <v>0.01252228411559237</v>
+      </c>
+      <c r="R22">
+        <v>47.16602186943422</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
+      <c r="A23">
+        <v>2</v>
+      </c>
+      <c r="B23" t="s">
+        <v>144</v>
+      </c>
+      <c r="C23" t="s">
+        <v>180</v>
+      </c>
+      <c r="D23" t="s">
+        <v>181</v>
+      </c>
+      <c r="E23" t="s">
+        <v>198</v>
+      </c>
+      <c r="F23">
+        <v>37.5400677686264</v>
+      </c>
+      <c r="G23">
+        <v>650</v>
+      </c>
+      <c r="H23" t="s">
+        <v>85</v>
+      </c>
+      <c r="I23">
+        <v>9.525</v>
+      </c>
+      <c r="J23" t="s">
+        <v>84</v>
+      </c>
+      <c r="K23">
+        <v>8.758481331682836</v>
+      </c>
+      <c r="L23">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="M23">
+        <v>10.35618333333334</v>
+      </c>
+      <c r="N23">
+        <v>8379675.931896062</v>
+      </c>
+      <c r="O23">
+        <v>8122063.47567611</v>
+      </c>
+      <c r="P23">
+        <v>16.70334675767818</v>
+      </c>
+      <c r="Q23">
+        <v>0.01254540739367755</v>
+      </c>
+      <c r="R23">
+        <v>47.86929577306879</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
+      <c r="A24">
+        <v>2</v>
+      </c>
+      <c r="B24" t="s">
+        <v>145</v>
+      </c>
+      <c r="C24" t="s">
+        <v>181</v>
+      </c>
+      <c r="D24" t="s">
+        <v>182</v>
+      </c>
+      <c r="E24" t="s">
+        <v>198</v>
+      </c>
+      <c r="F24">
+        <v>37.54006777863365</v>
+      </c>
+      <c r="G24">
+        <v>650</v>
+      </c>
+      <c r="H24" t="s">
+        <v>85</v>
+      </c>
+      <c r="I24">
+        <v>9.525</v>
+      </c>
+      <c r="J24" t="s">
+        <v>84</v>
+      </c>
+      <c r="K24">
+        <v>8.758481331682836</v>
+      </c>
+      <c r="L24">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="M24">
+        <v>10.35618333333334</v>
+      </c>
+      <c r="N24">
+        <v>8122063.47567611</v>
+      </c>
+      <c r="O24">
+        <v>7856448.199500915</v>
+      </c>
+      <c r="P24">
+        <v>16.71913418895993</v>
+      </c>
+      <c r="Q24">
+        <v>0.01256917323892183</v>
+      </c>
+      <c r="R24">
+        <v>48.63024099435352</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
+      <c r="A25">
+        <v>2</v>
+      </c>
+      <c r="B25" t="s">
+        <v>146</v>
+      </c>
+      <c r="C25" t="s">
+        <v>182</v>
+      </c>
+      <c r="D25" t="s">
+        <v>183</v>
+      </c>
+      <c r="E25" t="s">
+        <v>198</v>
+      </c>
+      <c r="F25">
+        <v>37.54006778688451</v>
+      </c>
+      <c r="G25">
+        <v>650</v>
+      </c>
+      <c r="H25" t="s">
+        <v>85</v>
+      </c>
+      <c r="I25">
+        <v>9.525</v>
+      </c>
+      <c r="J25" t="s">
+        <v>84</v>
+      </c>
+      <c r="K25">
+        <v>8.758481331682836</v>
+      </c>
+      <c r="L25">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="M25">
+        <v>10.35618333333334</v>
+      </c>
+      <c r="N25">
+        <v>7856448.199500915</v>
+      </c>
+      <c r="O25">
+        <v>7582009.571401532</v>
+      </c>
+      <c r="P25">
+        <v>16.73496737336965</v>
+      </c>
+      <c r="Q25">
+        <v>0.0125930478621893</v>
+      </c>
+      <c r="R25">
+        <v>49.46037290827644</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18">
+      <c r="A26">
+        <v>2</v>
+      </c>
+      <c r="B26" t="s">
+        <v>147</v>
+      </c>
+      <c r="C26" t="s">
+        <v>183</v>
+      </c>
+      <c r="D26" t="s">
+        <v>196</v>
+      </c>
+      <c r="E26" t="s">
+        <v>198</v>
+      </c>
+      <c r="F26">
+        <v>37.54006779638079</v>
+      </c>
+      <c r="G26">
+        <v>650</v>
+      </c>
+      <c r="H26" t="s">
+        <v>85</v>
+      </c>
+      <c r="I26">
+        <v>9.525</v>
+      </c>
+      <c r="J26" t="s">
+        <v>84</v>
+      </c>
+      <c r="K26">
+        <v>8.758481331682836</v>
+      </c>
+      <c r="L26">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="M26">
+        <v>10.35618333333334</v>
+      </c>
+      <c r="N26">
+        <v>7582009.571401532</v>
+      </c>
+      <c r="O26">
+        <v>7297776.610447595</v>
+      </c>
+      <c r="P26">
+        <v>16.75084654007264</v>
+      </c>
+      <c r="Q26">
+        <v>0.01261761679977028</v>
+      </c>
+      <c r="R26">
+        <v>50.36920049023117</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18">
+      <c r="A27">
+        <v>3</v>
+      </c>
+      <c r="B27" t="s">
+        <v>148</v>
+      </c>
+      <c r="C27" t="s">
+        <v>184</v>
+      </c>
+      <c r="D27" t="s">
+        <v>185</v>
+      </c>
+      <c r="E27" t="s">
+        <v>199</v>
+      </c>
+      <c r="F27">
+        <v>37.31823697272572</v>
+      </c>
+      <c r="G27">
+        <v>650</v>
+      </c>
+      <c r="H27" t="s">
+        <v>85</v>
+      </c>
+      <c r="I27">
+        <v>9.525</v>
+      </c>
+      <c r="J27" t="s">
+        <v>84</v>
+      </c>
+      <c r="K27">
+        <v>9.479348269320552</v>
+      </c>
+      <c r="L27">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="M27">
+        <v>10.35618333333334</v>
+      </c>
+      <c r="N27">
+        <v>8758481.331682835</v>
+      </c>
+      <c r="O27">
+        <v>8514588.068680065</v>
+      </c>
+      <c r="P27">
+        <v>16.62342873065716</v>
+      </c>
+      <c r="Q27">
+        <v>0.0124682057190367</v>
+      </c>
+      <c r="R27">
+        <v>46.81090180498248</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18">
+      <c r="A28">
+        <v>3</v>
+      </c>
+      <c r="B28" t="s">
+        <v>149</v>
+      </c>
+      <c r="C28" t="s">
+        <v>185</v>
+      </c>
+      <c r="D28" t="s">
+        <v>186</v>
+      </c>
+      <c r="E28" t="s">
+        <v>199</v>
+      </c>
+      <c r="F28">
+        <v>37.31823697264656</v>
+      </c>
+      <c r="G28">
+        <v>650</v>
+      </c>
+      <c r="H28" t="s">
+        <v>85</v>
+      </c>
+      <c r="I28">
+        <v>9.525</v>
+      </c>
+      <c r="J28" t="s">
+        <v>84</v>
+      </c>
+      <c r="K28">
+        <v>9.479348269320552</v>
+      </c>
+      <c r="L28">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="M28">
+        <v>10.35618333333334</v>
+      </c>
+      <c r="N28">
+        <v>8514588.068680065</v>
+      </c>
+      <c r="O28">
+        <v>8263893.33929316</v>
+      </c>
+      <c r="P28">
+        <v>16.63917730814773</v>
+      </c>
+      <c r="Q28">
+        <v>0.01249116958596833</v>
+      </c>
+      <c r="R28">
+        <v>47.47733043109545</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18">
+      <c r="A29">
+        <v>3</v>
+      </c>
+      <c r="B29" t="s">
+        <v>150</v>
+      </c>
+      <c r="C29" t="s">
+        <v>186</v>
+      </c>
+      <c r="D29" t="s">
+        <v>187</v>
+      </c>
+      <c r="E29" t="s">
+        <v>199</v>
+      </c>
+      <c r="F29">
+        <v>37.31823697267907</v>
+      </c>
+      <c r="G29">
+        <v>650</v>
+      </c>
+      <c r="H29" t="s">
+        <v>85</v>
+      </c>
+      <c r="I29">
+        <v>9.525</v>
+      </c>
+      <c r="J29" t="s">
+        <v>84</v>
+      </c>
+      <c r="K29">
+        <v>9.479348269320552</v>
+      </c>
+      <c r="L29">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="M29">
+        <v>10.35618333333334</v>
+      </c>
+      <c r="N29">
+        <v>8263893.33929316</v>
+      </c>
+      <c r="O29">
+        <v>8005773.332779126</v>
+      </c>
+      <c r="P29">
+        <v>16.65497163733091</v>
+      </c>
+      <c r="Q29">
+        <v>0.01251417906876456</v>
+      </c>
+      <c r="R29">
+        <v>48.19802509366715</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18">
+      <c r="A30">
+        <v>3</v>
+      </c>
+      <c r="B30" t="s">
+        <v>151</v>
+      </c>
+      <c r="C30" t="s">
+        <v>187</v>
+      </c>
+      <c r="D30" t="s">
+        <v>188</v>
+      </c>
+      <c r="E30" t="s">
+        <v>199</v>
+      </c>
+      <c r="F30">
+        <v>37.31823697272131</v>
+      </c>
+      <c r="G30">
+        <v>650</v>
+      </c>
+      <c r="H30" t="s">
+        <v>85</v>
+      </c>
+      <c r="I30">
+        <v>9.525</v>
+      </c>
+      <c r="J30" t="s">
+        <v>84</v>
+      </c>
+      <c r="K30">
+        <v>9.479348269320552</v>
+      </c>
+      <c r="L30">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="M30">
+        <v>10.35618333333334</v>
+      </c>
+      <c r="N30">
+        <v>8005773.332779126</v>
+      </c>
+      <c r="O30">
+        <v>7739504.085622476</v>
+      </c>
+      <c r="P30">
+        <v>16.67081194173772</v>
+      </c>
+      <c r="Q30">
+        <v>0.01253783275529918</v>
+      </c>
+      <c r="R30">
+        <v>48.97883457136163</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18">
+      <c r="A31">
+        <v>3</v>
+      </c>
+      <c r="B31" t="s">
+        <v>152</v>
+      </c>
+      <c r="C31" t="s">
+        <v>188</v>
+      </c>
+      <c r="D31" t="s">
+        <v>189</v>
+      </c>
+      <c r="E31" t="s">
+        <v>199</v>
+      </c>
+      <c r="F31">
+        <v>37.31823697275126</v>
+      </c>
+      <c r="G31">
+        <v>650</v>
+      </c>
+      <c r="H31" t="s">
+        <v>85</v>
+      </c>
+      <c r="I31">
+        <v>9.525</v>
+      </c>
+      <c r="J31" t="s">
+        <v>84</v>
+      </c>
+      <c r="K31">
+        <v>9.479348269320552</v>
+      </c>
+      <c r="L31">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="M31">
+        <v>10.35618333333334</v>
+      </c>
+      <c r="N31">
+        <v>7739504.085622476</v>
+      </c>
+      <c r="O31">
+        <v>7464214.197562716</v>
+      </c>
+      <c r="P31">
+        <v>16.6866984466174</v>
+      </c>
+      <c r="Q31">
+        <v>0.01256209459630218</v>
+      </c>
+      <c r="R31">
+        <v>49.82996189517544</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18">
+      <c r="A32">
+        <v>3</v>
+      </c>
+      <c r="B32" t="s">
+        <v>153</v>
+      </c>
+      <c r="C32" t="s">
+        <v>189</v>
+      </c>
+      <c r="D32" t="s">
+        <v>197</v>
+      </c>
+      <c r="E32" t="s">
+        <v>199</v>
+      </c>
+      <c r="F32">
+        <v>37.31823697277884</v>
+      </c>
+      <c r="G32">
+        <v>650</v>
+      </c>
+      <c r="H32" t="s">
+        <v>85</v>
+      </c>
+      <c r="I32">
+        <v>9.525</v>
+      </c>
+      <c r="J32" t="s">
+        <v>84</v>
+      </c>
+      <c r="K32">
+        <v>9.479348269320552</v>
+      </c>
+      <c r="L32">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="M32">
+        <v>10.35618333333334</v>
+      </c>
+      <c r="N32">
+        <v>7464214.197562716</v>
+      </c>
+      <c r="O32">
+        <v>7178890.867955418</v>
+      </c>
+      <c r="P32">
+        <v>16.70263137883939</v>
+      </c>
+      <c r="Q32">
+        <v>0.01258658396482198</v>
+      </c>
+      <c r="R32">
+        <v>50.76547770199171</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18">
+      <c r="A33">
+        <v>0</v>
+      </c>
+      <c r="B33" t="s">
+        <v>154</v>
+      </c>
+      <c r="C33" t="s">
+        <v>160</v>
+      </c>
+      <c r="D33" t="s">
+        <v>163</v>
+      </c>
+      <c r="E33" t="s">
+        <v>199</v>
+      </c>
+      <c r="F33">
+        <v>24.72033438768493</v>
+      </c>
+      <c r="G33">
+        <v>700</v>
+      </c>
+      <c r="H33" t="s">
+        <v>93</v>
+      </c>
+      <c r="I33">
+        <v>15.875</v>
+      </c>
+      <c r="J33" t="s">
+        <v>92</v>
+      </c>
+      <c r="K33">
+        <v>9.479348269320552</v>
+      </c>
+      <c r="L33">
+        <v>17.41029686446322</v>
+      </c>
+      <c r="M33">
+        <v>10.81825357296838</v>
+      </c>
+      <c r="N33">
+        <v>8700000</v>
+      </c>
+      <c r="O33">
+        <v>8613999.111311514</v>
+      </c>
+      <c r="P33">
+        <v>9.858329649644531</v>
+      </c>
+      <c r="Q33">
+        <v>0.007391600647384399</v>
+      </c>
+      <c r="R33">
+        <v>46.55430210865691</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18">
+      <c r="A34">
+        <v>1</v>
+      </c>
+      <c r="B34" t="s">
+        <v>155</v>
+      </c>
+      <c r="C34" t="s">
+        <v>167</v>
+      </c>
+      <c r="D34" t="s">
+        <v>190</v>
+      </c>
+      <c r="E34" t="s">
+        <v>199</v>
+      </c>
+      <c r="F34">
+        <v>20.33848161759211</v>
+      </c>
+      <c r="G34">
+        <v>650</v>
+      </c>
+      <c r="H34" t="s">
+        <v>85</v>
+      </c>
+      <c r="I34">
+        <v>9.525</v>
+      </c>
+      <c r="J34" t="s">
+        <v>84</v>
+      </c>
+      <c r="K34">
+        <v>8.758481331682836</v>
+      </c>
+      <c r="L34">
+        <v>16.02918374983147</v>
+      </c>
+      <c r="M34">
+        <v>9.960069935816531</v>
+      </c>
+      <c r="N34">
+        <v>8758481.331682835</v>
+      </c>
+      <c r="O34">
+        <v>8686293.401085246</v>
+      </c>
+      <c r="P34">
+        <v>9.112064761734707</v>
+      </c>
+      <c r="Q34">
+        <v>0.006830372837683779</v>
+      </c>
+      <c r="R34">
+        <v>46.37050561949265</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18">
+      <c r="A35">
+        <v>1</v>
+      </c>
+      <c r="B35" t="s">
+        <v>156</v>
+      </c>
+      <c r="C35" t="s">
+        <v>190</v>
+      </c>
+      <c r="D35" t="s">
+        <v>191</v>
+      </c>
+      <c r="E35" t="s">
+        <v>199</v>
+      </c>
+      <c r="F35">
+        <v>20.33848162936023</v>
+      </c>
+      <c r="G35">
+        <v>650</v>
+      </c>
+      <c r="H35" t="s">
+        <v>85</v>
+      </c>
+      <c r="I35">
+        <v>9.525</v>
+      </c>
+      <c r="J35" t="s">
+        <v>84</v>
+      </c>
+      <c r="K35">
+        <v>8.758481331682836</v>
+      </c>
+      <c r="L35">
+        <v>16.02918374983147</v>
+      </c>
+      <c r="M35">
+        <v>9.960069935816531</v>
+      </c>
+      <c r="N35">
+        <v>8686293.401085246</v>
+      </c>
+      <c r="O35">
+        <v>8613534.434280753</v>
+      </c>
+      <c r="P35">
+        <v>9.112064794842473</v>
+      </c>
+      <c r="Q35">
+        <v>0.006830372862501248</v>
+      </c>
+      <c r="R35">
+        <v>46.55549173403571</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18">
+      <c r="A36">
+        <v>1</v>
+      </c>
+      <c r="B36" t="s">
+        <v>157</v>
+      </c>
+      <c r="C36" t="s">
+        <v>191</v>
+      </c>
+      <c r="D36" t="s">
+        <v>192</v>
+      </c>
+      <c r="E36" t="s">
+        <v>199</v>
+      </c>
+      <c r="F36">
+        <v>20.3384816443298</v>
+      </c>
+      <c r="G36">
+        <v>650</v>
+      </c>
+      <c r="H36" t="s">
+        <v>85</v>
+      </c>
+      <c r="I36">
+        <v>9.525</v>
+      </c>
+      <c r="J36" t="s">
+        <v>84</v>
+      </c>
+      <c r="K36">
+        <v>8.758481331682836</v>
+      </c>
+      <c r="L36">
+        <v>16.02918374983147</v>
+      </c>
+      <c r="M36">
+        <v>9.960069935816531</v>
+      </c>
+      <c r="N36">
+        <v>8613534.434280753</v>
+      </c>
+      <c r="O36">
+        <v>8540188.502952371</v>
+      </c>
+      <c r="P36">
+        <v>9.103675485468393</v>
+      </c>
+      <c r="Q36">
+        <v>0.006825785119735903</v>
+      </c>
+      <c r="R36">
+        <v>46.74441656252997</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18">
+      <c r="A37">
+        <v>1</v>
+      </c>
+      <c r="B37" t="s">
+        <v>158</v>
+      </c>
+      <c r="C37" t="s">
+        <v>192</v>
+      </c>
+      <c r="D37" t="s">
+        <v>193</v>
+      </c>
+      <c r="E37" t="s">
+        <v>199</v>
+      </c>
+      <c r="F37">
+        <v>20.33848165973635</v>
+      </c>
+      <c r="G37">
+        <v>650</v>
+      </c>
+      <c r="H37" t="s">
+        <v>85</v>
+      </c>
+      <c r="I37">
+        <v>9.525</v>
+      </c>
+      <c r="J37" t="s">
+        <v>84</v>
+      </c>
+      <c r="K37">
+        <v>8.758481331682836</v>
+      </c>
+      <c r="L37">
+        <v>16.02918374983147</v>
+      </c>
+      <c r="M37">
+        <v>9.960069935816531</v>
+      </c>
+      <c r="N37">
+        <v>8540188.502952371</v>
+      </c>
+      <c r="O37">
+        <v>8466241.16806848</v>
+      </c>
+      <c r="P37">
+        <v>9.095321696088554</v>
+      </c>
+      <c r="Q37">
+        <v>0.006821234134844653</v>
+      </c>
+      <c r="R37">
+        <v>46.93723804811544</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18">
+      <c r="A38">
+        <v>1</v>
+      </c>
+      <c r="B38" t="s">
+        <v>159</v>
+      </c>
+      <c r="C38" t="s">
+        <v>193</v>
+      </c>
+      <c r="D38" t="s">
+        <v>173</v>
+      </c>
+      <c r="E38" t="s">
+        <v>199</v>
+      </c>
+      <c r="F38">
+        <v>20.33848167562015</v>
+      </c>
+      <c r="G38">
+        <v>650</v>
+      </c>
+      <c r="H38" t="s">
+        <v>85</v>
+      </c>
+      <c r="I38">
+        <v>9.525</v>
+      </c>
+      <c r="J38" t="s">
+        <v>84</v>
+      </c>
+      <c r="K38">
+        <v>8.758481331682836</v>
+      </c>
+      <c r="L38">
+        <v>16.02918374983147</v>
+      </c>
+      <c r="M38">
+        <v>9.960069935816531</v>
+      </c>
+      <c r="N38">
+        <v>8466241.16806848</v>
+      </c>
+      <c r="O38">
+        <v>8391677.388716727</v>
+      </c>
+      <c r="P38">
+        <v>9.086991326327285</v>
+      </c>
+      <c r="Q38">
+        <v>0.006816739136385707</v>
+      </c>
+      <c r="R38">
+        <v>47.13410328703228</v>
       </c>
     </row>
   </sheetData>
@@ -2721,7 +4085,7 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" s="2" t="s">
-        <v>156</v>
+        <v>200</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -2736,43 +4100,43 @@
         <v>111</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>157</v>
+        <v>201</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>158</v>
+        <v>202</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>159</v>
+        <v>203</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>160</v>
+        <v>204</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>97</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>161</v>
+        <v>205</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>103</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>162</v>
+        <v>206</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>163</v>
+        <v>207</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>164</v>
+        <v>208</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>165</v>
+        <v>209</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>166</v>
+        <v>210</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>167</v>
+        <v>211</v>
       </c>
     </row>
     <row r="2" spans="1:18">
@@ -2780,13 +4144,13 @@
         <v>104</v>
       </c>
       <c r="C2" t="s">
-        <v>150</v>
+        <v>194</v>
       </c>
       <c r="D2" t="s">
-        <v>141</v>
+        <v>167</v>
       </c>
       <c r="E2" t="s">
-        <v>154</v>
+        <v>198</v>
       </c>
       <c r="F2">
         <v>70</v>
@@ -2795,16 +4159,16 @@
         <v>43.49597</v>
       </c>
       <c r="H2">
-        <v>1.13628429712695</v>
+        <v>1.136245793196229</v>
       </c>
       <c r="I2">
-        <v>90.25263579720763</v>
+        <v>91.468618029673</v>
       </c>
       <c r="J2">
-        <v>9.442842970816688</v>
+        <v>9.570067280390024</v>
       </c>
       <c r="K2">
-        <v>12663.0412807246</v>
+        <v>12833.65162434863</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -2833,13 +4197,13 @@
         <v>105</v>
       </c>
       <c r="C3" t="s">
-        <v>151</v>
+        <v>195</v>
       </c>
       <c r="D3" t="s">
-        <v>145</v>
+        <v>177</v>
       </c>
       <c r="E3" t="s">
-        <v>154</v>
+        <v>198</v>
       </c>
       <c r="F3">
         <v>200</v>
@@ -2848,16 +4212,16 @@
         <v>124.2742</v>
       </c>
       <c r="H3">
-        <v>1.126220509626628</v>
+        <v>1.126190746547319</v>
       </c>
       <c r="I3">
-        <v>68.76595889439618</v>
+        <v>69.70750504910666</v>
       </c>
       <c r="J3">
-        <v>7.194761081952896</v>
+        <v>7.293272027480121</v>
       </c>
       <c r="K3">
-        <v>9648.318506120471</v>
+        <v>9780.423654291391</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -2886,31 +4250,31 @@
         <v>106</v>
       </c>
       <c r="C4" t="s">
-        <v>152</v>
+        <v>196</v>
       </c>
       <c r="D4" t="s">
-        <v>148</v>
+        <v>184</v>
       </c>
       <c r="E4" t="s">
-        <v>154</v>
+        <v>198</v>
       </c>
       <c r="F4">
-        <v>300</v>
+        <v>300.0000000000001</v>
       </c>
       <c r="G4">
         <v>186.4113</v>
       </c>
       <c r="H4">
-        <v>1.200130101900203</v>
+        <v>1.200157499908133</v>
       </c>
       <c r="I4">
-        <v>105.6432300715469</v>
+        <v>107.3441664768126</v>
       </c>
       <c r="J4">
-        <v>11.05311134332922</v>
+        <v>11.23107484806673</v>
       </c>
       <c r="K4">
-        <v>14822.44337363136</v>
+        <v>15061.09599275445</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -2941,7 +4305,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B39"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2949,15 +4313,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>168</v>
+        <v>212</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>169</v>
+        <v>213</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>138</v>
+        <v>160</v>
       </c>
       <c r="B2">
         <v>8700000</v>
@@ -2965,122 +4329,298 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>139</v>
+        <v>161</v>
       </c>
       <c r="B3">
-        <v>8532536.324568884</v>
+        <v>8634210.685615284</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>140</v>
+        <v>162</v>
       </c>
       <c r="B4">
-        <v>8402933.927147388</v>
+        <v>8567942.940002073</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="B5">
-        <v>7708001.733217917</v>
+        <v>8527176.986218391</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>141</v>
+        <v>165</v>
       </c>
       <c r="B6">
-        <v>8758481.331682835</v>
+        <v>8411359.720656494</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>142</v>
+        <v>166</v>
       </c>
       <c r="B7">
-        <v>8541209.507094258</v>
+        <v>8067085.049522392</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>143</v>
+        <v>194</v>
       </c>
       <c r="B8">
-        <v>8377523.512397858</v>
+        <v>7708262.93406593</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>144</v>
+        <v>167</v>
       </c>
       <c r="B9">
-        <v>8325823.124174025</v>
+        <v>8758481.331682835</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>151</v>
+        <v>168</v>
       </c>
       <c r="B10">
-        <v>7776879.622434246</v>
+        <v>8649137.068075731</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>145</v>
+        <v>169</v>
       </c>
       <c r="B11">
-        <v>8758481.331682835</v>
+        <v>8538468.950980525</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>146</v>
+        <v>170</v>
       </c>
       <c r="B12">
-        <v>8723175.028840285</v>
+        <v>8483494.782698594</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>147</v>
+        <v>171</v>
       </c>
       <c r="B13">
-        <v>8112367.383149006</v>
+        <v>8428181.310250917</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>152</v>
+        <v>172</v>
       </c>
       <c r="B14">
-        <v>7297943.212836062</v>
+        <v>8372522.172361416</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>148</v>
+        <v>174</v>
       </c>
       <c r="B15">
-        <v>8758481.331682835</v>
+        <v>8316481.486383285</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>149</v>
+        <v>175</v>
       </c>
       <c r="B16">
-        <v>8014671.579439835</v>
+        <v>8308880.801883166</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>153</v>
+        <v>176</v>
       </c>
       <c r="B17">
-        <v>7199669.899335487</v>
+        <v>8047153.078632046</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>195</v>
+      </c>
+      <c r="B18">
+        <v>7777085.150570298</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>177</v>
+      </c>
+      <c r="B19">
+        <v>8758481.331682835</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>178</v>
+      </c>
+      <c r="B20">
+        <v>8716952.478284363</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>179</v>
+      </c>
+      <c r="B21">
+        <v>8630003.332177546</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>180</v>
+      </c>
+      <c r="B22">
+        <v>8379675.931896062</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>181</v>
+      </c>
+      <c r="B23">
+        <v>8122063.47567611</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>182</v>
+      </c>
+      <c r="B24">
+        <v>7856448.199500915</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>183</v>
+      </c>
+      <c r="B25">
+        <v>7582009.571401532</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>196</v>
+      </c>
+      <c r="B26">
+        <v>7297776.610447595</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>184</v>
+      </c>
+      <c r="B27">
+        <v>8758481.331682835</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>185</v>
+      </c>
+      <c r="B28">
+        <v>8514588.068680065</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>186</v>
+      </c>
+      <c r="B29">
+        <v>8263893.33929316</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>187</v>
+      </c>
+      <c r="B30">
+        <v>8005773.332779126</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>188</v>
+      </c>
+      <c r="B31">
+        <v>7739504.085622476</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>189</v>
+      </c>
+      <c r="B32">
+        <v>7464214.197562716</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>197</v>
+      </c>
+      <c r="B33">
+        <v>7178890.867955418</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>163</v>
+      </c>
+      <c r="B34">
+        <v>8613999.111311514</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>190</v>
+      </c>
+      <c r="B35">
+        <v>8686293.401085246</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>191</v>
+      </c>
+      <c r="B36">
+        <v>8613534.434280753</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>192</v>
+      </c>
+      <c r="B37">
+        <v>8540188.502952371</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>193</v>
+      </c>
+      <c r="B38">
+        <v>8466241.16806848</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>173</v>
+      </c>
+      <c r="B39">
+        <v>8391677.388716727</v>
       </c>
     </row>
   </sheetData>
@@ -3098,36 +4638,36 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
-        <v>170</v>
+        <v>214</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>171</v>
+        <v>215</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>172</v>
+        <v>216</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>173</v>
+        <v>217</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>174</v>
+        <v>218</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>175</v>
+        <v>219</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>176</v>
+        <v>220</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>142</v>
+        <v>169</v>
       </c>
       <c r="B2">
         <v>8.11266027279845</v>
       </c>
       <c r="C2">
-        <v>8.112660546709783</v>
+        <v>8.112658984981366</v>
       </c>
       <c r="D2">
         <v>141.8178946624533</v>
@@ -3136,21 +4676,21 @@
         <v>1150.5204</v>
       </c>
       <c r="F2">
-        <v>1150.520438845529</v>
+        <v>1150.520217364493</v>
       </c>
       <c r="G2">
-        <v>3.376344177075946E-06</v>
+        <v>-1.587416509094729E-05</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>153</v>
+        <v>197</v>
       </c>
       <c r="B3">
         <v>21.09291642722411</v>
       </c>
       <c r="C3">
-        <v>21.09291642688627</v>
+        <v>21.09291642720028</v>
       </c>
       <c r="D3">
         <v>141.8178946624533</v>
@@ -3159,21 +4699,21 @@
         <v>2991.353</v>
       </c>
       <c r="F3">
-        <v>2991.352999952087</v>
+        <v>2991.352999996619</v>
       </c>
       <c r="G3">
-        <v>-1.60171715070733E-09</v>
+        <v>-1.130007609583524E-10</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>177</v>
+        <v>221</v>
       </c>
       <c r="B4">
         <v>16.2253205455969</v>
       </c>
       <c r="C4">
-        <v>16.22532054533702</v>
+        <v>16.22532054557857</v>
       </c>
       <c r="D4">
         <v>141.8178946624533</v>
@@ -3182,10 +4722,10 @@
         <v>2301.0408</v>
       </c>
       <c r="F4">
-        <v>2301.040799963144</v>
+        <v>2301.0407999974</v>
       </c>
       <c r="G4">
-        <v>-1.601722182237323E-09</v>
+        <v>-1.130058123952759E-10</v>
       </c>
     </row>
   </sheetData>
